--- a/season/season-2223_csv.xlsx
+++ b/season/season-2223_csv.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="44">
   <si>
     <t>Giornata</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
   </si>
   <si>
     <t>Milan</t>
@@ -500,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E171"/>
+  <dimension ref="A1:E181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +531,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -545,13 +548,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -562,10 +565,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -579,10 +582,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
@@ -596,10 +599,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -613,10 +616,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
@@ -630,13 +633,13 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
         <v>5</v>
@@ -647,16 +650,16 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -664,10 +667,10 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
@@ -681,16 +684,16 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -698,16 +701,16 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -715,16 +718,16 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -732,16 +735,16 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -749,16 +752,16 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -766,16 +769,16 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -783,16 +786,16 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -800,10 +803,10 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
         <v>5</v>
@@ -817,10 +820,10 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D19" t="s">
         <v>5</v>
@@ -834,16 +837,16 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D20" t="s">
         <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -851,16 +854,16 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -868,10 +871,10 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D22" t="s">
         <v>5</v>
@@ -885,10 +888,10 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
@@ -902,10 +905,10 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s">
         <v>5</v>
@@ -919,10 +922,10 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D25" t="s">
         <v>5</v>
@@ -936,16 +939,16 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D26" t="s">
         <v>6</v>
       </c>
       <c r="E26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -953,10 +956,10 @@
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D27" t="s">
         <v>6</v>
@@ -970,13 +973,13 @@
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E28" t="s">
         <v>5</v>
@@ -987,16 +990,16 @@
         <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D29" t="s">
         <v>8</v>
       </c>
       <c r="E29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1004,16 +1007,16 @@
         <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1021,10 +1024,10 @@
         <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D31" t="s">
         <v>5</v>
@@ -1038,16 +1041,16 @@
         <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1055,10 +1058,10 @@
         <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D33" t="s">
         <v>7</v>
@@ -1072,16 +1075,16 @@
         <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D34" t="s">
         <v>7</v>
       </c>
       <c r="E34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1089,10 +1092,10 @@
         <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D35" t="s">
         <v>5</v>
@@ -1106,10 +1109,10 @@
         <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D36" t="s">
         <v>5</v>
@@ -1123,16 +1126,16 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C37" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D37" t="s">
         <v>5</v>
       </c>
       <c r="E37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1140,16 +1143,16 @@
         <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D38" t="s">
         <v>6</v>
       </c>
       <c r="E38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1157,10 +1160,10 @@
         <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D39" t="s">
         <v>5</v>
@@ -1174,10 +1177,10 @@
         <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D40" t="s">
         <v>7</v>
@@ -1191,10 +1194,10 @@
         <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D41" t="s">
         <v>5</v>
@@ -1208,10 +1211,10 @@
         <v>9</v>
       </c>
       <c r="B42" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C42" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D42" t="s">
         <v>5</v>
@@ -1225,10 +1228,10 @@
         <v>9</v>
       </c>
       <c r="B43" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D43" t="s">
         <v>7</v>
@@ -1242,10 +1245,10 @@
         <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C44" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D44" t="s">
         <v>5</v>
@@ -1259,16 +1262,16 @@
         <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C45" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D45" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E45" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1276,10 +1279,10 @@
         <v>9</v>
       </c>
       <c r="B46" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C46" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D46" t="s">
         <v>6</v>
@@ -1293,10 +1296,10 @@
         <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D47" t="s">
         <v>6</v>
@@ -1310,16 +1313,16 @@
         <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C48" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D48" t="s">
         <v>8</v>
       </c>
       <c r="E48" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1327,13 +1330,13 @@
         <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C49" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D49" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E49" t="s">
         <v>6</v>
@@ -1344,10 +1347,10 @@
         <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C50" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D50" t="s">
         <v>6</v>
@@ -1361,16 +1364,16 @@
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C51" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D51" t="s">
         <v>5</v>
       </c>
       <c r="E51" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1378,16 +1381,16 @@
         <v>10</v>
       </c>
       <c r="B52" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C52" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D52" t="s">
         <v>5</v>
       </c>
       <c r="E52" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1395,16 +1398,16 @@
         <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C53" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D53" t="s">
         <v>5</v>
       </c>
       <c r="E53" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1412,10 +1415,10 @@
         <v>10</v>
       </c>
       <c r="B54" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54" t="s">
         <v>23</v>
-      </c>
-      <c r="C54" t="s">
-        <v>22</v>
       </c>
       <c r="D54" t="s">
         <v>5</v>
@@ -1429,10 +1432,10 @@
         <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C55" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D55" t="s">
         <v>5</v>
@@ -1446,10 +1449,10 @@
         <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C56" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D56" t="s">
         <v>6</v>
@@ -1463,10 +1466,10 @@
         <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C57" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D57" t="s">
         <v>5</v>
@@ -1480,10 +1483,10 @@
         <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C58" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D58" t="s">
         <v>5</v>
@@ -1497,16 +1500,16 @@
         <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C59" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D59" t="s">
         <v>6</v>
       </c>
       <c r="E59" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1514,10 +1517,10 @@
         <v>10</v>
       </c>
       <c r="B60" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C60" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D60" t="s">
         <v>6</v>
@@ -1531,10 +1534,10 @@
         <v>10</v>
       </c>
       <c r="B61" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C61" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D61" t="s">
         <v>5</v>
@@ -1548,10 +1551,10 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C62" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D62" t="s">
         <v>5</v>
@@ -1565,13 +1568,13 @@
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C63" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D63" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E63" t="s">
         <v>5</v>
@@ -1582,10 +1585,10 @@
         <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C64" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D64" t="s">
         <v>6</v>
@@ -1599,13 +1602,13 @@
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C65" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D65" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E65" t="s">
         <v>5</v>
@@ -1616,10 +1619,10 @@
         <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D66" t="s">
         <v>7</v>
@@ -1633,13 +1636,13 @@
         <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C67" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D67" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E67" t="s">
         <v>8</v>
@@ -1650,16 +1653,16 @@
         <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C68" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D68" t="s">
         <v>6</v>
       </c>
       <c r="E68" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1667,16 +1670,16 @@
         <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C69" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D69" t="s">
         <v>5</v>
       </c>
       <c r="E69" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1684,13 +1687,13 @@
         <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C70" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D70" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E70" t="s">
         <v>5</v>
@@ -1701,10 +1704,10 @@
         <v>11</v>
       </c>
       <c r="B71" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C71" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D71" t="s">
         <v>5</v>
@@ -1718,10 +1721,10 @@
         <v>12</v>
       </c>
       <c r="B72" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C72" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D72" t="s">
         <v>7</v>
@@ -1735,10 +1738,10 @@
         <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C73" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D73" t="s">
         <v>5</v>
@@ -1752,10 +1755,10 @@
         <v>12</v>
       </c>
       <c r="B74" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C74" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D74" t="s">
         <v>5</v>
@@ -1769,16 +1772,16 @@
         <v>12</v>
       </c>
       <c r="B75" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C75" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D75" t="s">
         <v>8</v>
       </c>
       <c r="E75" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1786,10 +1789,10 @@
         <v>12</v>
       </c>
       <c r="B76" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C76" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D76" t="s">
         <v>5</v>
@@ -1803,13 +1806,13 @@
         <v>12</v>
       </c>
       <c r="B77" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C77" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D77" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E77" t="s">
         <v>7</v>
@@ -1820,16 +1823,16 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C78" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D78" t="s">
         <v>9</v>
       </c>
       <c r="E78" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1837,16 +1840,16 @@
         <v>12</v>
       </c>
       <c r="B79" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C79" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D79" t="s">
         <v>5</v>
       </c>
       <c r="E79" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1854,16 +1857,16 @@
         <v>12</v>
       </c>
       <c r="B80" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C80" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D80" t="s">
         <v>7</v>
       </c>
       <c r="E80" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1871,10 +1874,10 @@
         <v>12</v>
       </c>
       <c r="B81" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C81" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D81" t="s">
         <v>5</v>
@@ -1888,10 +1891,10 @@
         <v>13</v>
       </c>
       <c r="B82" t="s">
+        <v>36</v>
+      </c>
+      <c r="C82" t="s">
         <v>35</v>
-      </c>
-      <c r="C82" t="s">
-        <v>34</v>
       </c>
       <c r="D82" t="s">
         <v>5</v>
@@ -1905,16 +1908,16 @@
         <v>13</v>
       </c>
       <c r="B83" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C83" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D83" t="s">
         <v>6</v>
       </c>
       <c r="E83" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1922,10 +1925,10 @@
         <v>13</v>
       </c>
       <c r="B84" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C84" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D84" t="s">
         <v>5</v>
@@ -1939,10 +1942,10 @@
         <v>13</v>
       </c>
       <c r="B85" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C85" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D85" t="s">
         <v>5</v>
@@ -1956,16 +1959,16 @@
         <v>13</v>
       </c>
       <c r="B86" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C86" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D86" t="s">
         <v>6</v>
       </c>
       <c r="E86" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1973,10 +1976,10 @@
         <v>13</v>
       </c>
       <c r="B87" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C87" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D87" t="s">
         <v>6</v>
@@ -1990,10 +1993,10 @@
         <v>13</v>
       </c>
       <c r="B88" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C88" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D88" t="s">
         <v>6</v>
@@ -2007,10 +2010,10 @@
         <v>13</v>
       </c>
       <c r="B89" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C89" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D89" t="s">
         <v>5</v>
@@ -2024,10 +2027,10 @@
         <v>13</v>
       </c>
       <c r="B90" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C90" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D90" t="s">
         <v>6</v>
@@ -2041,13 +2044,13 @@
         <v>13</v>
       </c>
       <c r="B91" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C91" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D91" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E91" t="s">
         <v>8</v>
@@ -2058,16 +2061,16 @@
         <v>14</v>
       </c>
       <c r="B92" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C92" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D92" t="s">
         <v>5</v>
       </c>
       <c r="E92" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2075,13 +2078,13 @@
         <v>14</v>
       </c>
       <c r="B93" t="s">
+        <v>33</v>
+      </c>
+      <c r="C93" t="s">
         <v>32</v>
       </c>
-      <c r="C93" t="s">
-        <v>31</v>
-      </c>
       <c r="D93" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E93" t="s">
         <v>5</v>
@@ -2092,10 +2095,10 @@
         <v>14</v>
       </c>
       <c r="B94" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C94" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D94" t="s">
         <v>6</v>
@@ -2109,16 +2112,16 @@
         <v>14</v>
       </c>
       <c r="B95" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C95" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D95" t="s">
         <v>6</v>
       </c>
       <c r="E95" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2126,16 +2129,16 @@
         <v>14</v>
       </c>
       <c r="B96" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C96" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D96" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E96" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2143,10 +2146,10 @@
         <v>14</v>
       </c>
       <c r="B97" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C97" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D97" t="s">
         <v>6</v>
@@ -2160,10 +2163,10 @@
         <v>14</v>
       </c>
       <c r="B98" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C98" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D98" t="s">
         <v>7</v>
@@ -2177,10 +2180,10 @@
         <v>14</v>
       </c>
       <c r="B99" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C99" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D99" t="s">
         <v>5</v>
@@ -2194,13 +2197,13 @@
         <v>14</v>
       </c>
       <c r="B100" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C100" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D100" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E100" t="s">
         <v>5</v>
@@ -2211,10 +2214,10 @@
         <v>14</v>
       </c>
       <c r="B101" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C101" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D101" t="s">
         <v>5</v>
@@ -2228,16 +2231,16 @@
         <v>15</v>
       </c>
       <c r="B102" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C102" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D102" t="s">
         <v>8</v>
       </c>
       <c r="E102" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2245,16 +2248,16 @@
         <v>15</v>
       </c>
       <c r="B103" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C103" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D103" t="s">
         <v>5</v>
       </c>
       <c r="E103" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2262,10 +2265,10 @@
         <v>15</v>
       </c>
       <c r="B104" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C104" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D104" t="s">
         <v>8</v>
@@ -2279,10 +2282,10 @@
         <v>15</v>
       </c>
       <c r="B105" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C105" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D105" t="s">
         <v>7</v>
@@ -2296,10 +2299,10 @@
         <v>15</v>
       </c>
       <c r="B106" t="s">
+        <v>34</v>
+      </c>
+      <c r="C106" t="s">
         <v>33</v>
-      </c>
-      <c r="C106" t="s">
-        <v>32</v>
       </c>
       <c r="D106" t="s">
         <v>5</v>
@@ -2313,16 +2316,16 @@
         <v>15</v>
       </c>
       <c r="B107" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C107" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D107" t="s">
         <v>6</v>
       </c>
       <c r="E107" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2330,13 +2333,13 @@
         <v>15</v>
       </c>
       <c r="B108" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C108" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D108" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E108" t="s">
         <v>6</v>
@@ -2347,13 +2350,13 @@
         <v>15</v>
       </c>
       <c r="B109" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C109" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D109" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E109" t="s">
         <v>5</v>
@@ -2364,13 +2367,13 @@
         <v>15</v>
       </c>
       <c r="B110" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C110" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D110" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E110" t="s">
         <v>5</v>
@@ -2381,10 +2384,10 @@
         <v>15</v>
       </c>
       <c r="B111" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C111" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D111" t="s">
         <v>6</v>
@@ -2398,16 +2401,16 @@
         <v>16</v>
       </c>
       <c r="B112" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C112" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D112" t="s">
         <v>8</v>
       </c>
       <c r="E112" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2415,13 +2418,13 @@
         <v>16</v>
       </c>
       <c r="B113" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C113" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D113" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E113" t="s">
         <v>5</v>
@@ -2432,16 +2435,16 @@
         <v>16</v>
       </c>
       <c r="B114" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C114" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D114" t="s">
         <v>7</v>
       </c>
       <c r="E114" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2449,13 +2452,13 @@
         <v>16</v>
       </c>
       <c r="B115" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C115" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D115" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E115" t="s">
         <v>6</v>
@@ -2466,16 +2469,16 @@
         <v>16</v>
       </c>
       <c r="B116" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C116" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D116" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E116" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2483,10 +2486,10 @@
         <v>16</v>
       </c>
       <c r="B117" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C117" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D117" t="s">
         <v>5</v>
@@ -2500,10 +2503,10 @@
         <v>16</v>
       </c>
       <c r="B118" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C118" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D118" t="s">
         <v>5</v>
@@ -2517,10 +2520,10 @@
         <v>16</v>
       </c>
       <c r="B119" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C119" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D119" t="s">
         <v>6</v>
@@ -2534,10 +2537,10 @@
         <v>16</v>
       </c>
       <c r="B120" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C120" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D120" t="s">
         <v>5</v>
@@ -2551,10 +2554,10 @@
         <v>16</v>
       </c>
       <c r="B121" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C121" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D121" t="s">
         <v>5</v>
@@ -2568,10 +2571,10 @@
         <v>17</v>
       </c>
       <c r="B122" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C122" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D122" t="s">
         <v>5</v>
@@ -2585,16 +2588,16 @@
         <v>17</v>
       </c>
       <c r="B123" t="s">
+        <v>37</v>
+      </c>
+      <c r="C123" t="s">
         <v>36</v>
       </c>
-      <c r="C123" t="s">
-        <v>35</v>
-      </c>
       <c r="D123" t="s">
         <v>5</v>
       </c>
       <c r="E123" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2602,10 +2605,10 @@
         <v>17</v>
       </c>
       <c r="B124" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C124" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D124" t="s">
         <v>6</v>
@@ -2619,10 +2622,10 @@
         <v>17</v>
       </c>
       <c r="B125" t="s">
+        <v>39</v>
+      </c>
+      <c r="C125" t="s">
         <v>38</v>
-      </c>
-      <c r="C125" t="s">
-        <v>37</v>
       </c>
       <c r="D125" t="s">
         <v>5</v>
@@ -2636,10 +2639,10 @@
         <v>17</v>
       </c>
       <c r="B126" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C126" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D126" t="s">
         <v>6</v>
@@ -2653,10 +2656,10 @@
         <v>17</v>
       </c>
       <c r="B127" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C127" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D127" t="s">
         <v>6</v>
@@ -2670,13 +2673,13 @@
         <v>17</v>
       </c>
       <c r="B128" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C128" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D128" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E128" t="s">
         <v>6</v>
@@ -2687,16 +2690,16 @@
         <v>17</v>
       </c>
       <c r="B129" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C129" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D129" t="s">
         <v>6</v>
       </c>
       <c r="E129" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2704,13 +2707,13 @@
         <v>17</v>
       </c>
       <c r="B130" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C130" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D130" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E130" t="s">
         <v>5</v>
@@ -2721,16 +2724,16 @@
         <v>17</v>
       </c>
       <c r="B131" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C131" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D131" t="s">
         <v>6</v>
       </c>
       <c r="E131" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2738,16 +2741,16 @@
         <v>18</v>
       </c>
       <c r="B132" t="s">
+        <v>38</v>
+      </c>
+      <c r="C132" t="s">
         <v>37</v>
       </c>
-      <c r="C132" t="s">
-        <v>36</v>
-      </c>
       <c r="D132" t="s">
         <v>6</v>
       </c>
       <c r="E132" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2755,10 +2758,10 @@
         <v>18</v>
       </c>
       <c r="B133" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C133" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D133" t="s">
         <v>5</v>
@@ -2772,16 +2775,16 @@
         <v>18</v>
       </c>
       <c r="B134" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C134" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D134" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E134" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2789,10 +2792,10 @@
         <v>18</v>
       </c>
       <c r="B135" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C135" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D135" t="s">
         <v>6</v>
@@ -2806,10 +2809,10 @@
         <v>18</v>
       </c>
       <c r="B136" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C136" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D136" t="s">
         <v>5</v>
@@ -2823,10 +2826,10 @@
         <v>18</v>
       </c>
       <c r="B137" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C137" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D137" t="s">
         <v>6</v>
@@ -2840,10 +2843,10 @@
         <v>18</v>
       </c>
       <c r="B138" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C138" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D138" t="s">
         <v>10</v>
@@ -2857,16 +2860,16 @@
         <v>18</v>
       </c>
       <c r="B139" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C139" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D139" t="s">
         <v>6</v>
       </c>
       <c r="E139" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2874,13 +2877,13 @@
         <v>18</v>
       </c>
       <c r="B140" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C140" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D140" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E140" t="s">
         <v>5</v>
@@ -2891,16 +2894,16 @@
         <v>18</v>
       </c>
       <c r="B141" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C141" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D141" t="s">
         <v>5</v>
       </c>
       <c r="E141" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2908,16 +2911,16 @@
         <v>19</v>
       </c>
       <c r="B142" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C142" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D142" t="s">
         <v>6</v>
       </c>
       <c r="E142" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -2925,10 +2928,10 @@
         <v>19</v>
       </c>
       <c r="B143" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C143" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D143" t="s">
         <v>7</v>
@@ -2942,13 +2945,13 @@
         <v>19</v>
       </c>
       <c r="B144" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C144" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D144" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E144" t="s">
         <v>6</v>
@@ -2959,16 +2962,16 @@
         <v>19</v>
       </c>
       <c r="B145" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C145" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D145" t="s">
         <v>7</v>
       </c>
       <c r="E145" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -2976,10 +2979,10 @@
         <v>19</v>
       </c>
       <c r="B146" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C146" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D146" t="s">
         <v>6</v>
@@ -2993,10 +2996,10 @@
         <v>19</v>
       </c>
       <c r="B147" t="s">
+        <v>31</v>
+      </c>
+      <c r="C147" t="s">
         <v>30</v>
-      </c>
-      <c r="C147" t="s">
-        <v>29</v>
       </c>
       <c r="D147" t="s">
         <v>5</v>
@@ -3010,16 +3013,16 @@
         <v>19</v>
       </c>
       <c r="B148" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C148" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D148" t="s">
         <v>7</v>
       </c>
       <c r="E148" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -3027,10 +3030,10 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C149" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D149" t="s">
         <v>5</v>
@@ -3044,10 +3047,10 @@
         <v>19</v>
       </c>
       <c r="B150" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C150" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D150" t="s">
         <v>6</v>
@@ -3061,16 +3064,16 @@
         <v>19</v>
       </c>
       <c r="B151" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C151" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D151" t="s">
         <v>7</v>
       </c>
       <c r="E151" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3078,10 +3081,10 @@
         <v>20</v>
       </c>
       <c r="B152" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C152" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D152" t="s">
         <v>5</v>
@@ -3095,10 +3098,10 @@
         <v>20</v>
       </c>
       <c r="B153" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C153" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D153" t="s">
         <v>5</v>
@@ -3112,10 +3115,10 @@
         <v>20</v>
       </c>
       <c r="B154" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C154" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D154" t="s">
         <v>6</v>
@@ -3129,10 +3132,10 @@
         <v>20</v>
       </c>
       <c r="B155" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C155" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D155" t="s">
         <v>5</v>
@@ -3146,16 +3149,16 @@
         <v>20</v>
       </c>
       <c r="B156" t="s">
+        <v>41</v>
+      </c>
+      <c r="C156" t="s">
         <v>40</v>
       </c>
-      <c r="C156" t="s">
-        <v>39</v>
-      </c>
       <c r="D156" t="s">
         <v>5</v>
       </c>
       <c r="E156" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3163,10 +3166,10 @@
         <v>20</v>
       </c>
       <c r="B157" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C157" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D157" t="s">
         <v>6</v>
@@ -3180,13 +3183,13 @@
         <v>20</v>
       </c>
       <c r="B158" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C158" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D158" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E158" t="s">
         <v>5</v>
@@ -3197,10 +3200,10 @@
         <v>20</v>
       </c>
       <c r="B159" t="s">
+        <v>27</v>
+      </c>
+      <c r="C159" t="s">
         <v>26</v>
-      </c>
-      <c r="C159" t="s">
-        <v>25</v>
       </c>
       <c r="D159" t="s">
         <v>5</v>
@@ -3214,16 +3217,16 @@
         <v>20</v>
       </c>
       <c r="B160" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C160" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D160" t="s">
         <v>5</v>
       </c>
       <c r="E160" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3231,10 +3234,10 @@
         <v>20</v>
       </c>
       <c r="B161" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C161" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D161" t="s">
         <v>5</v>
@@ -3248,10 +3251,10 @@
         <v>21</v>
       </c>
       <c r="B162" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C162" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D162" t="s">
         <v>6</v>
@@ -3265,16 +3268,16 @@
         <v>21</v>
       </c>
       <c r="B163" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C163" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D163" t="s">
         <v>5</v>
       </c>
       <c r="E163" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3282,10 +3285,10 @@
         <v>21</v>
       </c>
       <c r="B164" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C164" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D164" t="s">
         <v>6</v>
@@ -3299,10 +3302,10 @@
         <v>21</v>
       </c>
       <c r="B165" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C165" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D165" t="s">
         <v>5</v>
@@ -3316,10 +3319,10 @@
         <v>21</v>
       </c>
       <c r="B166" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C166" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D166" t="s">
         <v>6</v>
@@ -3333,16 +3336,16 @@
         <v>21</v>
       </c>
       <c r="B167" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C167" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D167" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E167" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3350,13 +3353,13 @@
         <v>21</v>
       </c>
       <c r="B168" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C168" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D168" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E168" t="s">
         <v>6</v>
@@ -3367,10 +3370,10 @@
         <v>21</v>
       </c>
       <c r="B169" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C169" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D169" t="s">
         <v>6</v>
@@ -3384,16 +3387,16 @@
         <v>21</v>
       </c>
       <c r="B170" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C170" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D170" t="s">
         <v>6</v>
       </c>
       <c r="E170" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3401,16 +3404,186 @@
         <v>21</v>
       </c>
       <c r="B171" t="s">
+        <v>40</v>
+      </c>
+      <c r="C171" t="s">
         <v>39</v>
       </c>
-      <c r="C171" t="s">
+      <c r="D171" t="s">
+        <v>5</v>
+      </c>
+      <c r="E171" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" t="s">
+        <v>22</v>
+      </c>
+      <c r="B172" t="s">
         <v>38</v>
       </c>
-      <c r="D171" t="s">
-        <v>5</v>
-      </c>
-      <c r="E171" t="s">
-        <v>6</v>
+      <c r="C172" t="s">
+        <v>32</v>
+      </c>
+      <c r="D172" t="s">
+        <v>9</v>
+      </c>
+      <c r="E172" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" t="s">
+        <v>22</v>
+      </c>
+      <c r="B173" t="s">
+        <v>42</v>
+      </c>
+      <c r="C173" t="s">
+        <v>26</v>
+      </c>
+      <c r="D173" t="s">
+        <v>6</v>
+      </c>
+      <c r="E173" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" t="s">
+        <v>22</v>
+      </c>
+      <c r="B174" t="s">
+        <v>25</v>
+      </c>
+      <c r="C174" t="s">
+        <v>23</v>
+      </c>
+      <c r="D174" t="s">
+        <v>6</v>
+      </c>
+      <c r="E174" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" t="s">
+        <v>22</v>
+      </c>
+      <c r="B175" t="s">
+        <v>35</v>
+      </c>
+      <c r="C175" t="s">
+        <v>31</v>
+      </c>
+      <c r="D175" t="s">
+        <v>5</v>
+      </c>
+      <c r="E175" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" t="s">
+        <v>22</v>
+      </c>
+      <c r="B176" t="s">
+        <v>36</v>
+      </c>
+      <c r="C176" t="s">
+        <v>28</v>
+      </c>
+      <c r="D176" t="s">
+        <v>43</v>
+      </c>
+      <c r="E176" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" t="s">
+        <v>22</v>
+      </c>
+      <c r="B177" t="s">
+        <v>33</v>
+      </c>
+      <c r="C177" t="s">
+        <v>30</v>
+      </c>
+      <c r="D177" t="s">
+        <v>43</v>
+      </c>
+      <c r="E177" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" t="s">
+        <v>22</v>
+      </c>
+      <c r="B178" t="s">
+        <v>34</v>
+      </c>
+      <c r="C178" t="s">
+        <v>40</v>
+      </c>
+      <c r="D178" t="s">
+        <v>5</v>
+      </c>
+      <c r="E178" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" t="s">
+        <v>22</v>
+      </c>
+      <c r="B179" t="s">
+        <v>39</v>
+      </c>
+      <c r="C179" t="s">
+        <v>29</v>
+      </c>
+      <c r="D179" t="s">
+        <v>12</v>
+      </c>
+      <c r="E179" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" t="s">
+        <v>22</v>
+      </c>
+      <c r="B180" t="s">
+        <v>41</v>
+      </c>
+      <c r="C180" t="s">
+        <v>27</v>
+      </c>
+      <c r="D180" t="s">
+        <v>6</v>
+      </c>
+      <c r="E180" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" t="s">
+        <v>22</v>
+      </c>
+      <c r="B181" t="s">
+        <v>37</v>
+      </c>
+      <c r="C181" t="s">
+        <v>24</v>
+      </c>
+      <c r="D181" t="s">
+        <v>5</v>
+      </c>
+      <c r="E181" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/season/season-2223_csv.xlsx
+++ b/season/season-2223_csv.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="45">
   <si>
     <t>Giornata</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
   </si>
   <si>
     <t>Milan</t>
@@ -503,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E181"/>
+  <dimension ref="A1:E188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,10 +534,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -548,13 +551,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -565,10 +568,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -582,10 +585,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
@@ -599,10 +602,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -616,10 +619,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
@@ -633,13 +636,13 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
         <v>5</v>
@@ -650,16 +653,16 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -667,10 +670,10 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
@@ -684,16 +687,16 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -701,16 +704,16 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -718,16 +721,16 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -735,16 +738,16 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -752,16 +755,16 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -769,16 +772,16 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -786,16 +789,16 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
         <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -803,10 +806,10 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
         <v>5</v>
@@ -820,10 +823,10 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D19" t="s">
         <v>5</v>
@@ -837,16 +840,16 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D20" t="s">
         <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -854,16 +857,16 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -871,10 +874,10 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D22" t="s">
         <v>5</v>
@@ -888,10 +891,10 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
@@ -905,10 +908,10 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D24" t="s">
         <v>5</v>
@@ -922,10 +925,10 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D25" t="s">
         <v>5</v>
@@ -939,16 +942,16 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D26" t="s">
         <v>6</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -956,10 +959,10 @@
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D27" t="s">
         <v>6</v>
@@ -973,13 +976,13 @@
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E28" t="s">
         <v>5</v>
@@ -990,16 +993,16 @@
         <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D29" t="s">
         <v>8</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1007,16 +1010,16 @@
         <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1024,10 +1027,10 @@
         <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D31" t="s">
         <v>5</v>
@@ -1041,16 +1044,16 @@
         <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C32" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1058,10 +1061,10 @@
         <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D33" t="s">
         <v>7</v>
@@ -1075,16 +1078,16 @@
         <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C34" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D34" t="s">
         <v>7</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1092,10 +1095,10 @@
         <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D35" t="s">
         <v>5</v>
@@ -1109,10 +1112,10 @@
         <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D36" t="s">
         <v>5</v>
@@ -1126,16 +1129,16 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D37" t="s">
         <v>5</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1143,16 +1146,16 @@
         <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C38" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D38" t="s">
         <v>6</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1160,10 +1163,10 @@
         <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D39" t="s">
         <v>5</v>
@@ -1177,10 +1180,10 @@
         <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D40" t="s">
         <v>7</v>
@@ -1194,10 +1197,10 @@
         <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D41" t="s">
         <v>5</v>
@@ -1211,10 +1214,10 @@
         <v>9</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C42" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D42" t="s">
         <v>5</v>
@@ -1228,10 +1231,10 @@
         <v>9</v>
       </c>
       <c r="B43" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C43" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D43" t="s">
         <v>7</v>
@@ -1245,10 +1248,10 @@
         <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C44" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D44" t="s">
         <v>5</v>
@@ -1262,16 +1265,16 @@
         <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C45" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1279,10 +1282,10 @@
         <v>9</v>
       </c>
       <c r="B46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C46" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D46" t="s">
         <v>6</v>
@@ -1296,10 +1299,10 @@
         <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C47" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D47" t="s">
         <v>6</v>
@@ -1313,16 +1316,16 @@
         <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D48" t="s">
         <v>8</v>
       </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1330,13 +1333,13 @@
         <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C49" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E49" t="s">
         <v>6</v>
@@ -1347,10 +1350,10 @@
         <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C50" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D50" t="s">
         <v>6</v>
@@ -1364,16 +1367,16 @@
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C51" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D51" t="s">
         <v>5</v>
       </c>
       <c r="E51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1381,16 +1384,16 @@
         <v>10</v>
       </c>
       <c r="B52" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C52" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D52" t="s">
         <v>5</v>
       </c>
       <c r="E52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1398,16 +1401,16 @@
         <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C53" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D53" t="s">
         <v>5</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1415,10 +1418,10 @@
         <v>10</v>
       </c>
       <c r="B54" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54" t="s">
         <v>24</v>
-      </c>
-      <c r="C54" t="s">
-        <v>23</v>
       </c>
       <c r="D54" t="s">
         <v>5</v>
@@ -1432,10 +1435,10 @@
         <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C55" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D55" t="s">
         <v>5</v>
@@ -1449,10 +1452,10 @@
         <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C56" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D56" t="s">
         <v>6</v>
@@ -1466,10 +1469,10 @@
         <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C57" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D57" t="s">
         <v>5</v>
@@ -1483,10 +1486,10 @@
         <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D58" t="s">
         <v>5</v>
@@ -1500,16 +1503,16 @@
         <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C59" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D59" t="s">
         <v>6</v>
       </c>
       <c r="E59" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1517,10 +1520,10 @@
         <v>10</v>
       </c>
       <c r="B60" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C60" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D60" t="s">
         <v>6</v>
@@ -1534,10 +1537,10 @@
         <v>10</v>
       </c>
       <c r="B61" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C61" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D61" t="s">
         <v>5</v>
@@ -1551,10 +1554,10 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C62" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D62" t="s">
         <v>5</v>
@@ -1568,13 +1571,13 @@
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C63" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D63" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E63" t="s">
         <v>5</v>
@@ -1585,10 +1588,10 @@
         <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C64" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D64" t="s">
         <v>6</v>
@@ -1602,13 +1605,13 @@
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C65" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D65" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E65" t="s">
         <v>5</v>
@@ -1619,10 +1622,10 @@
         <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C66" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D66" t="s">
         <v>7</v>
@@ -1636,13 +1639,13 @@
         <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C67" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D67" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E67" t="s">
         <v>8</v>
@@ -1653,16 +1656,16 @@
         <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C68" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D68" t="s">
         <v>6</v>
       </c>
       <c r="E68" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1670,16 +1673,16 @@
         <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C69" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D69" t="s">
         <v>5</v>
       </c>
       <c r="E69" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1687,13 +1690,13 @@
         <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C70" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D70" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E70" t="s">
         <v>5</v>
@@ -1704,10 +1707,10 @@
         <v>11</v>
       </c>
       <c r="B71" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C71" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D71" t="s">
         <v>5</v>
@@ -1721,10 +1724,10 @@
         <v>12</v>
       </c>
       <c r="B72" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C72" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D72" t="s">
         <v>7</v>
@@ -1738,10 +1741,10 @@
         <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C73" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D73" t="s">
         <v>5</v>
@@ -1755,10 +1758,10 @@
         <v>12</v>
       </c>
       <c r="B74" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C74" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D74" t="s">
         <v>5</v>
@@ -1772,16 +1775,16 @@
         <v>12</v>
       </c>
       <c r="B75" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C75" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D75" t="s">
         <v>8</v>
       </c>
       <c r="E75" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1789,10 +1792,10 @@
         <v>12</v>
       </c>
       <c r="B76" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C76" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D76" t="s">
         <v>5</v>
@@ -1806,13 +1809,13 @@
         <v>12</v>
       </c>
       <c r="B77" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C77" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D77" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E77" t="s">
         <v>7</v>
@@ -1823,16 +1826,16 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C78" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D78" t="s">
         <v>9</v>
       </c>
       <c r="E78" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1840,16 +1843,16 @@
         <v>12</v>
       </c>
       <c r="B79" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C79" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D79" t="s">
         <v>5</v>
       </c>
       <c r="E79" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1857,16 +1860,16 @@
         <v>12</v>
       </c>
       <c r="B80" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C80" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D80" t="s">
         <v>7</v>
       </c>
       <c r="E80" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1874,10 +1877,10 @@
         <v>12</v>
       </c>
       <c r="B81" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C81" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D81" t="s">
         <v>5</v>
@@ -1891,10 +1894,10 @@
         <v>13</v>
       </c>
       <c r="B82" t="s">
+        <v>37</v>
+      </c>
+      <c r="C82" t="s">
         <v>36</v>
-      </c>
-      <c r="C82" t="s">
-        <v>35</v>
       </c>
       <c r="D82" t="s">
         <v>5</v>
@@ -1908,16 +1911,16 @@
         <v>13</v>
       </c>
       <c r="B83" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C83" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D83" t="s">
         <v>6</v>
       </c>
       <c r="E83" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1925,10 +1928,10 @@
         <v>13</v>
       </c>
       <c r="B84" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C84" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D84" t="s">
         <v>5</v>
@@ -1942,10 +1945,10 @@
         <v>13</v>
       </c>
       <c r="B85" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C85" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D85" t="s">
         <v>5</v>
@@ -1959,16 +1962,16 @@
         <v>13</v>
       </c>
       <c r="B86" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C86" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D86" t="s">
         <v>6</v>
       </c>
       <c r="E86" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1976,10 +1979,10 @@
         <v>13</v>
       </c>
       <c r="B87" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C87" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D87" t="s">
         <v>6</v>
@@ -1993,10 +1996,10 @@
         <v>13</v>
       </c>
       <c r="B88" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C88" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D88" t="s">
         <v>6</v>
@@ -2010,10 +2013,10 @@
         <v>13</v>
       </c>
       <c r="B89" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C89" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D89" t="s">
         <v>5</v>
@@ -2027,10 +2030,10 @@
         <v>13</v>
       </c>
       <c r="B90" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C90" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D90" t="s">
         <v>6</v>
@@ -2044,13 +2047,13 @@
         <v>13</v>
       </c>
       <c r="B91" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C91" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D91" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E91" t="s">
         <v>8</v>
@@ -2061,16 +2064,16 @@
         <v>14</v>
       </c>
       <c r="B92" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C92" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D92" t="s">
         <v>5</v>
       </c>
       <c r="E92" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2078,13 +2081,13 @@
         <v>14</v>
       </c>
       <c r="B93" t="s">
+        <v>34</v>
+      </c>
+      <c r="C93" t="s">
         <v>33</v>
       </c>
-      <c r="C93" t="s">
-        <v>32</v>
-      </c>
       <c r="D93" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E93" t="s">
         <v>5</v>
@@ -2095,10 +2098,10 @@
         <v>14</v>
       </c>
       <c r="B94" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C94" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D94" t="s">
         <v>6</v>
@@ -2112,16 +2115,16 @@
         <v>14</v>
       </c>
       <c r="B95" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C95" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D95" t="s">
         <v>6</v>
       </c>
       <c r="E95" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2129,16 +2132,16 @@
         <v>14</v>
       </c>
       <c r="B96" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C96" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D96" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E96" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2146,10 +2149,10 @@
         <v>14</v>
       </c>
       <c r="B97" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C97" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D97" t="s">
         <v>6</v>
@@ -2163,10 +2166,10 @@
         <v>14</v>
       </c>
       <c r="B98" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C98" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D98" t="s">
         <v>7</v>
@@ -2180,10 +2183,10 @@
         <v>14</v>
       </c>
       <c r="B99" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C99" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D99" t="s">
         <v>5</v>
@@ -2197,13 +2200,13 @@
         <v>14</v>
       </c>
       <c r="B100" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C100" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D100" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E100" t="s">
         <v>5</v>
@@ -2214,10 +2217,10 @@
         <v>14</v>
       </c>
       <c r="B101" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C101" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D101" t="s">
         <v>5</v>
@@ -2231,16 +2234,16 @@
         <v>15</v>
       </c>
       <c r="B102" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C102" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D102" t="s">
         <v>8</v>
       </c>
       <c r="E102" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2248,16 +2251,16 @@
         <v>15</v>
       </c>
       <c r="B103" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C103" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D103" t="s">
         <v>5</v>
       </c>
       <c r="E103" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2265,10 +2268,10 @@
         <v>15</v>
       </c>
       <c r="B104" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C104" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D104" t="s">
         <v>8</v>
@@ -2282,10 +2285,10 @@
         <v>15</v>
       </c>
       <c r="B105" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C105" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D105" t="s">
         <v>7</v>
@@ -2299,10 +2302,10 @@
         <v>15</v>
       </c>
       <c r="B106" t="s">
+        <v>35</v>
+      </c>
+      <c r="C106" t="s">
         <v>34</v>
-      </c>
-      <c r="C106" t="s">
-        <v>33</v>
       </c>
       <c r="D106" t="s">
         <v>5</v>
@@ -2316,16 +2319,16 @@
         <v>15</v>
       </c>
       <c r="B107" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C107" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D107" t="s">
         <v>6</v>
       </c>
       <c r="E107" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2333,13 +2336,13 @@
         <v>15</v>
       </c>
       <c r="B108" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C108" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D108" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E108" t="s">
         <v>6</v>
@@ -2350,13 +2353,13 @@
         <v>15</v>
       </c>
       <c r="B109" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C109" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D109" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E109" t="s">
         <v>5</v>
@@ -2367,13 +2370,13 @@
         <v>15</v>
       </c>
       <c r="B110" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C110" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D110" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E110" t="s">
         <v>5</v>
@@ -2384,10 +2387,10 @@
         <v>15</v>
       </c>
       <c r="B111" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C111" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D111" t="s">
         <v>6</v>
@@ -2401,16 +2404,16 @@
         <v>16</v>
       </c>
       <c r="B112" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C112" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D112" t="s">
         <v>8</v>
       </c>
       <c r="E112" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2418,13 +2421,13 @@
         <v>16</v>
       </c>
       <c r="B113" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C113" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D113" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E113" t="s">
         <v>5</v>
@@ -2435,16 +2438,16 @@
         <v>16</v>
       </c>
       <c r="B114" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C114" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D114" t="s">
         <v>7</v>
       </c>
       <c r="E114" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2452,13 +2455,13 @@
         <v>16</v>
       </c>
       <c r="B115" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C115" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D115" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E115" t="s">
         <v>6</v>
@@ -2469,16 +2472,16 @@
         <v>16</v>
       </c>
       <c r="B116" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C116" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D116" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E116" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2486,10 +2489,10 @@
         <v>16</v>
       </c>
       <c r="B117" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C117" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D117" t="s">
         <v>5</v>
@@ -2503,10 +2506,10 @@
         <v>16</v>
       </c>
       <c r="B118" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C118" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D118" t="s">
         <v>5</v>
@@ -2520,10 +2523,10 @@
         <v>16</v>
       </c>
       <c r="B119" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C119" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D119" t="s">
         <v>6</v>
@@ -2537,10 +2540,10 @@
         <v>16</v>
       </c>
       <c r="B120" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C120" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D120" t="s">
         <v>5</v>
@@ -2554,10 +2557,10 @@
         <v>16</v>
       </c>
       <c r="B121" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C121" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D121" t="s">
         <v>5</v>
@@ -2571,10 +2574,10 @@
         <v>17</v>
       </c>
       <c r="B122" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C122" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D122" t="s">
         <v>5</v>
@@ -2588,16 +2591,16 @@
         <v>17</v>
       </c>
       <c r="B123" t="s">
+        <v>38</v>
+      </c>
+      <c r="C123" t="s">
         <v>37</v>
       </c>
-      <c r="C123" t="s">
-        <v>36</v>
-      </c>
       <c r="D123" t="s">
         <v>5</v>
       </c>
       <c r="E123" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2605,10 +2608,10 @@
         <v>17</v>
       </c>
       <c r="B124" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C124" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D124" t="s">
         <v>6</v>
@@ -2622,10 +2625,10 @@
         <v>17</v>
       </c>
       <c r="B125" t="s">
+        <v>40</v>
+      </c>
+      <c r="C125" t="s">
         <v>39</v>
-      </c>
-      <c r="C125" t="s">
-        <v>38</v>
       </c>
       <c r="D125" t="s">
         <v>5</v>
@@ -2639,10 +2642,10 @@
         <v>17</v>
       </c>
       <c r="B126" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C126" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D126" t="s">
         <v>6</v>
@@ -2656,10 +2659,10 @@
         <v>17</v>
       </c>
       <c r="B127" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C127" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D127" t="s">
         <v>6</v>
@@ -2673,13 +2676,13 @@
         <v>17</v>
       </c>
       <c r="B128" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C128" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D128" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E128" t="s">
         <v>6</v>
@@ -2690,16 +2693,16 @@
         <v>17</v>
       </c>
       <c r="B129" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C129" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D129" t="s">
         <v>6</v>
       </c>
       <c r="E129" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2707,13 +2710,13 @@
         <v>17</v>
       </c>
       <c r="B130" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C130" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D130" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E130" t="s">
         <v>5</v>
@@ -2724,16 +2727,16 @@
         <v>17</v>
       </c>
       <c r="B131" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C131" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D131" t="s">
         <v>6</v>
       </c>
       <c r="E131" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2741,16 +2744,16 @@
         <v>18</v>
       </c>
       <c r="B132" t="s">
+        <v>39</v>
+      </c>
+      <c r="C132" t="s">
         <v>38</v>
       </c>
-      <c r="C132" t="s">
-        <v>37</v>
-      </c>
       <c r="D132" t="s">
         <v>6</v>
       </c>
       <c r="E132" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2758,10 +2761,10 @@
         <v>18</v>
       </c>
       <c r="B133" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C133" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D133" t="s">
         <v>5</v>
@@ -2775,16 +2778,16 @@
         <v>18</v>
       </c>
       <c r="B134" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C134" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D134" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E134" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2792,10 +2795,10 @@
         <v>18</v>
       </c>
       <c r="B135" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C135" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D135" t="s">
         <v>6</v>
@@ -2809,10 +2812,10 @@
         <v>18</v>
       </c>
       <c r="B136" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C136" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D136" t="s">
         <v>5</v>
@@ -2826,10 +2829,10 @@
         <v>18</v>
       </c>
       <c r="B137" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C137" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D137" t="s">
         <v>6</v>
@@ -2843,10 +2846,10 @@
         <v>18</v>
       </c>
       <c r="B138" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C138" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D138" t="s">
         <v>10</v>
@@ -2860,16 +2863,16 @@
         <v>18</v>
       </c>
       <c r="B139" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C139" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D139" t="s">
         <v>6</v>
       </c>
       <c r="E139" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2877,13 +2880,13 @@
         <v>18</v>
       </c>
       <c r="B140" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C140" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D140" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E140" t="s">
         <v>5</v>
@@ -2894,16 +2897,16 @@
         <v>18</v>
       </c>
       <c r="B141" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C141" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D141" t="s">
         <v>5</v>
       </c>
       <c r="E141" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2911,16 +2914,16 @@
         <v>19</v>
       </c>
       <c r="B142" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C142" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D142" t="s">
         <v>6</v>
       </c>
       <c r="E142" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -2928,10 +2931,10 @@
         <v>19</v>
       </c>
       <c r="B143" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C143" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D143" t="s">
         <v>7</v>
@@ -2945,13 +2948,13 @@
         <v>19</v>
       </c>
       <c r="B144" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C144" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D144" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E144" t="s">
         <v>6</v>
@@ -2962,16 +2965,16 @@
         <v>19</v>
       </c>
       <c r="B145" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C145" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D145" t="s">
         <v>7</v>
       </c>
       <c r="E145" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -2979,10 +2982,10 @@
         <v>19</v>
       </c>
       <c r="B146" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C146" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D146" t="s">
         <v>6</v>
@@ -2996,10 +2999,10 @@
         <v>19</v>
       </c>
       <c r="B147" t="s">
+        <v>32</v>
+      </c>
+      <c r="C147" t="s">
         <v>31</v>
-      </c>
-      <c r="C147" t="s">
-        <v>30</v>
       </c>
       <c r="D147" t="s">
         <v>5</v>
@@ -3013,16 +3016,16 @@
         <v>19</v>
       </c>
       <c r="B148" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C148" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D148" t="s">
         <v>7</v>
       </c>
       <c r="E148" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -3030,10 +3033,10 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C149" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D149" t="s">
         <v>5</v>
@@ -3047,10 +3050,10 @@
         <v>19</v>
       </c>
       <c r="B150" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C150" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D150" t="s">
         <v>6</v>
@@ -3064,16 +3067,16 @@
         <v>19</v>
       </c>
       <c r="B151" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C151" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D151" t="s">
         <v>7</v>
       </c>
       <c r="E151" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3081,10 +3084,10 @@
         <v>20</v>
       </c>
       <c r="B152" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C152" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D152" t="s">
         <v>5</v>
@@ -3098,10 +3101,10 @@
         <v>20</v>
       </c>
       <c r="B153" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C153" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D153" t="s">
         <v>5</v>
@@ -3115,10 +3118,10 @@
         <v>20</v>
       </c>
       <c r="B154" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C154" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D154" t="s">
         <v>6</v>
@@ -3132,10 +3135,10 @@
         <v>20</v>
       </c>
       <c r="B155" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C155" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D155" t="s">
         <v>5</v>
@@ -3149,16 +3152,16 @@
         <v>20</v>
       </c>
       <c r="B156" t="s">
+        <v>42</v>
+      </c>
+      <c r="C156" t="s">
         <v>41</v>
       </c>
-      <c r="C156" t="s">
-        <v>40</v>
-      </c>
       <c r="D156" t="s">
         <v>5</v>
       </c>
       <c r="E156" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3166,10 +3169,10 @@
         <v>20</v>
       </c>
       <c r="B157" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C157" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D157" t="s">
         <v>6</v>
@@ -3183,13 +3186,13 @@
         <v>20</v>
       </c>
       <c r="B158" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C158" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D158" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E158" t="s">
         <v>5</v>
@@ -3200,10 +3203,10 @@
         <v>20</v>
       </c>
       <c r="B159" t="s">
+        <v>28</v>
+      </c>
+      <c r="C159" t="s">
         <v>27</v>
-      </c>
-      <c r="C159" t="s">
-        <v>26</v>
       </c>
       <c r="D159" t="s">
         <v>5</v>
@@ -3217,16 +3220,16 @@
         <v>20</v>
       </c>
       <c r="B160" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C160" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D160" t="s">
         <v>5</v>
       </c>
       <c r="E160" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3234,10 +3237,10 @@
         <v>20</v>
       </c>
       <c r="B161" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C161" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D161" t="s">
         <v>5</v>
@@ -3251,10 +3254,10 @@
         <v>21</v>
       </c>
       <c r="B162" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C162" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D162" t="s">
         <v>6</v>
@@ -3268,16 +3271,16 @@
         <v>21</v>
       </c>
       <c r="B163" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C163" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D163" t="s">
         <v>5</v>
       </c>
       <c r="E163" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3285,10 +3288,10 @@
         <v>21</v>
       </c>
       <c r="B164" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C164" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D164" t="s">
         <v>6</v>
@@ -3302,10 +3305,10 @@
         <v>21</v>
       </c>
       <c r="B165" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C165" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D165" t="s">
         <v>5</v>
@@ -3319,10 +3322,10 @@
         <v>21</v>
       </c>
       <c r="B166" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C166" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D166" t="s">
         <v>6</v>
@@ -3336,16 +3339,16 @@
         <v>21</v>
       </c>
       <c r="B167" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C167" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D167" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E167" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3353,13 +3356,13 @@
         <v>21</v>
       </c>
       <c r="B168" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C168" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D168" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E168" t="s">
         <v>6</v>
@@ -3370,10 +3373,10 @@
         <v>21</v>
       </c>
       <c r="B169" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C169" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D169" t="s">
         <v>6</v>
@@ -3387,16 +3390,16 @@
         <v>21</v>
       </c>
       <c r="B170" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C170" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D170" t="s">
         <v>6</v>
       </c>
       <c r="E170" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3404,10 +3407,10 @@
         <v>21</v>
       </c>
       <c r="B171" t="s">
+        <v>41</v>
+      </c>
+      <c r="C171" t="s">
         <v>40</v>
-      </c>
-      <c r="C171" t="s">
-        <v>39</v>
       </c>
       <c r="D171" t="s">
         <v>5</v>
@@ -3421,10 +3424,10 @@
         <v>22</v>
       </c>
       <c r="B172" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C172" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D172" t="s">
         <v>9</v>
@@ -3438,10 +3441,10 @@
         <v>22</v>
       </c>
       <c r="B173" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C173" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D173" t="s">
         <v>6</v>
@@ -3455,10 +3458,10 @@
         <v>22</v>
       </c>
       <c r="B174" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C174" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D174" t="s">
         <v>6</v>
@@ -3472,16 +3475,16 @@
         <v>22</v>
       </c>
       <c r="B175" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C175" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D175" t="s">
         <v>5</v>
       </c>
       <c r="E175" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3489,13 +3492,13 @@
         <v>22</v>
       </c>
       <c r="B176" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C176" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D176" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E176" t="s">
         <v>6</v>
@@ -3506,13 +3509,13 @@
         <v>22</v>
       </c>
       <c r="B177" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C177" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D177" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E177" t="s">
         <v>5</v>
@@ -3523,10 +3526,10 @@
         <v>22</v>
       </c>
       <c r="B178" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C178" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D178" t="s">
         <v>5</v>
@@ -3540,10 +3543,10 @@
         <v>22</v>
       </c>
       <c r="B179" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C179" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D179" t="s">
         <v>12</v>
@@ -3557,16 +3560,16 @@
         <v>22</v>
       </c>
       <c r="B180" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C180" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D180" t="s">
         <v>6</v>
       </c>
       <c r="E180" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3574,16 +3577,135 @@
         <v>22</v>
       </c>
       <c r="B181" t="s">
+        <v>38</v>
+      </c>
+      <c r="C181" t="s">
+        <v>25</v>
+      </c>
+      <c r="D181" t="s">
+        <v>5</v>
+      </c>
+      <c r="E181" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" t="s">
+        <v>23</v>
+      </c>
+      <c r="B182" t="s">
+        <v>32</v>
+      </c>
+      <c r="C182" t="s">
+        <v>26</v>
+      </c>
+      <c r="D182" t="s">
+        <v>6</v>
+      </c>
+      <c r="E182" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" t="s">
+        <v>23</v>
+      </c>
+      <c r="B183" t="s">
+        <v>30</v>
+      </c>
+      <c r="C183" t="s">
+        <v>39</v>
+      </c>
+      <c r="D183" t="s">
+        <v>44</v>
+      </c>
+      <c r="E183" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" t="s">
+        <v>23</v>
+      </c>
+      <c r="B184" t="s">
+        <v>28</v>
+      </c>
+      <c r="C184" t="s">
+        <v>34</v>
+      </c>
+      <c r="D184" t="s">
+        <v>44</v>
+      </c>
+      <c r="E184" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" t="s">
+        <v>23</v>
+      </c>
+      <c r="B185" t="s">
+        <v>25</v>
+      </c>
+      <c r="C185" t="s">
+        <v>35</v>
+      </c>
+      <c r="D185" t="s">
+        <v>44</v>
+      </c>
+      <c r="E185" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" t="s">
+        <v>23</v>
+      </c>
+      <c r="B186" t="s">
+        <v>27</v>
+      </c>
+      <c r="C186" t="s">
         <v>37</v>
       </c>
-      <c r="C181" t="s">
-        <v>24</v>
-      </c>
-      <c r="D181" t="s">
-        <v>5</v>
-      </c>
-      <c r="E181" t="s">
-        <v>43</v>
+      <c r="D186" t="s">
+        <v>5</v>
+      </c>
+      <c r="E186" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" t="s">
+        <v>23</v>
+      </c>
+      <c r="B187" t="s">
+        <v>31</v>
+      </c>
+      <c r="C187" t="s">
+        <v>42</v>
+      </c>
+      <c r="D187" t="s">
+        <v>44</v>
+      </c>
+      <c r="E187" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" t="s">
+        <v>23</v>
+      </c>
+      <c r="B188" t="s">
+        <v>33</v>
+      </c>
+      <c r="C188" t="s">
+        <v>40</v>
+      </c>
+      <c r="D188" t="s">
+        <v>7</v>
+      </c>
+      <c r="E188" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/season/season-2223_csv.xlsx
+++ b/season/season-2223_csv.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1855" uniqueCount="63">
   <si>
     <t>Giornata</t>
   </si>
@@ -86,6 +86,60 @@
   </si>
   <si>
     <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
   </si>
   <si>
     <t>Milan</t>
@@ -506,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E188"/>
+  <dimension ref="A1:E371"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,10 +588,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -551,13 +605,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -568,10 +622,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -585,10 +639,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
@@ -602,10 +656,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -619,10 +673,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
@@ -636,13 +690,13 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="E8" t="s">
         <v>5</v>
@@ -653,16 +707,16 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -670,10 +724,10 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
@@ -687,16 +741,16 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -704,16 +758,16 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -721,16 +775,16 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -738,16 +792,16 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -755,16 +809,16 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
         <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -772,16 +826,16 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -789,16 +843,16 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="D17" t="s">
         <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -806,10 +860,10 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D18" t="s">
         <v>5</v>
@@ -823,10 +877,10 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
         <v>5</v>
@@ -840,16 +894,16 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="D20" t="s">
         <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -857,16 +911,16 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="D21" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -874,10 +928,10 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="D22" t="s">
         <v>5</v>
@@ -891,10 +945,10 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
@@ -908,10 +962,10 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="D24" t="s">
         <v>5</v>
@@ -925,10 +979,10 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C25" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="D25" t="s">
         <v>5</v>
@@ -942,16 +996,16 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C26" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="D26" t="s">
         <v>6</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -959,10 +1013,10 @@
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="D27" t="s">
         <v>6</v>
@@ -976,13 +1030,13 @@
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C28" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D28" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="E28" t="s">
         <v>5</v>
@@ -993,16 +1047,16 @@
         <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C29" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="D29" t="s">
         <v>8</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1010,16 +1064,16 @@
         <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C30" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D30" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1027,10 +1081,10 @@
         <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="C31" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="D31" t="s">
         <v>5</v>
@@ -1044,16 +1098,16 @@
         <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="C32" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D32" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1061,10 +1115,10 @@
         <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="C33" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="D33" t="s">
         <v>7</v>
@@ -1078,16 +1132,16 @@
         <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="D34" t="s">
         <v>7</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1095,10 +1149,10 @@
         <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="C35" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="D35" t="s">
         <v>5</v>
@@ -1112,10 +1166,10 @@
         <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="D36" t="s">
         <v>5</v>
@@ -1129,16 +1183,16 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="C37" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D37" t="s">
         <v>5</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1146,16 +1200,16 @@
         <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C38" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D38" t="s">
         <v>6</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1163,10 +1217,10 @@
         <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="C39" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D39" t="s">
         <v>5</v>
@@ -1180,10 +1234,10 @@
         <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="C40" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="D40" t="s">
         <v>7</v>
@@ -1197,10 +1251,10 @@
         <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="C41" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D41" t="s">
         <v>5</v>
@@ -1214,10 +1268,10 @@
         <v>9</v>
       </c>
       <c r="B42" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C42" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="D42" t="s">
         <v>5</v>
@@ -1231,10 +1285,10 @@
         <v>9</v>
       </c>
       <c r="B43" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D43" t="s">
         <v>7</v>
@@ -1248,10 +1302,10 @@
         <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D44" t="s">
         <v>5</v>
@@ -1265,16 +1319,16 @@
         <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="C45" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="D45" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1282,10 +1336,10 @@
         <v>9</v>
       </c>
       <c r="B46" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="D46" t="s">
         <v>6</v>
@@ -1299,10 +1353,10 @@
         <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="D47" t="s">
         <v>6</v>
@@ -1316,16 +1370,16 @@
         <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="C48" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="D48" t="s">
         <v>8</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1333,13 +1387,13 @@
         <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C49" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D49" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="E49" t="s">
         <v>6</v>
@@ -1350,10 +1404,10 @@
         <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C50" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="D50" t="s">
         <v>6</v>
@@ -1367,16 +1421,16 @@
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="C51" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D51" t="s">
         <v>5</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1384,16 +1438,16 @@
         <v>10</v>
       </c>
       <c r="B52" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="C52" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D52" t="s">
         <v>5</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1401,16 +1455,16 @@
         <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="C53" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="D53" t="s">
         <v>5</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1418,10 +1472,10 @@
         <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C54" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D54" t="s">
         <v>5</v>
@@ -1435,10 +1489,10 @@
         <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="D55" t="s">
         <v>5</v>
@@ -1452,10 +1506,10 @@
         <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D56" t="s">
         <v>6</v>
@@ -1469,10 +1523,10 @@
         <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="D57" t="s">
         <v>5</v>
@@ -1486,10 +1540,10 @@
         <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="C58" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="D58" t="s">
         <v>5</v>
@@ -1503,16 +1557,16 @@
         <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C59" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="D59" t="s">
         <v>6</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1520,10 +1574,10 @@
         <v>10</v>
       </c>
       <c r="B60" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C60" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D60" t="s">
         <v>6</v>
@@ -1537,10 +1591,10 @@
         <v>10</v>
       </c>
       <c r="B61" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="C61" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="D61" t="s">
         <v>5</v>
@@ -1554,10 +1608,10 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C62" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D62" t="s">
         <v>5</v>
@@ -1571,13 +1625,13 @@
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="C63" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="D63" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="E63" t="s">
         <v>5</v>
@@ -1588,10 +1642,10 @@
         <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="C64" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="D64" t="s">
         <v>6</v>
@@ -1605,13 +1659,13 @@
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="C65" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="D65" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="E65" t="s">
         <v>5</v>
@@ -1622,10 +1676,10 @@
         <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="C66" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D66" t="s">
         <v>7</v>
@@ -1639,13 +1693,13 @@
         <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="C67" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="D67" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="E67" t="s">
         <v>8</v>
@@ -1656,16 +1710,16 @@
         <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C68" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="D68" t="s">
         <v>6</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1673,16 +1727,16 @@
         <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C69" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="D69" t="s">
         <v>5</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1690,13 +1744,13 @@
         <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="C70" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D70" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="E70" t="s">
         <v>5</v>
@@ -1707,10 +1761,10 @@
         <v>11</v>
       </c>
       <c r="B71" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C71" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D71" t="s">
         <v>5</v>
@@ -1724,10 +1778,10 @@
         <v>12</v>
       </c>
       <c r="B72" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="C72" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="D72" t="s">
         <v>7</v>
@@ -1741,10 +1795,10 @@
         <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="C73" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="D73" t="s">
         <v>5</v>
@@ -1758,10 +1812,10 @@
         <v>12</v>
       </c>
       <c r="B74" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="C74" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D74" t="s">
         <v>5</v>
@@ -1775,16 +1829,16 @@
         <v>12</v>
       </c>
       <c r="B75" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C75" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D75" t="s">
         <v>8</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1792,10 +1846,10 @@
         <v>12</v>
       </c>
       <c r="B76" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="C76" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="D76" t="s">
         <v>5</v>
@@ -1809,13 +1863,13 @@
         <v>12</v>
       </c>
       <c r="B77" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C77" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="D77" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="E77" t="s">
         <v>7</v>
@@ -1826,16 +1880,16 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="C78" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D78" t="s">
         <v>9</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1843,16 +1897,16 @@
         <v>12</v>
       </c>
       <c r="B79" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="C79" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D79" t="s">
         <v>5</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1860,16 +1914,16 @@
         <v>12</v>
       </c>
       <c r="B80" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C80" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="D80" t="s">
         <v>7</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1877,10 +1931,10 @@
         <v>12</v>
       </c>
       <c r="B81" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C81" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="D81" t="s">
         <v>5</v>
@@ -1894,10 +1948,10 @@
         <v>13</v>
       </c>
       <c r="B82" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="C82" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D82" t="s">
         <v>5</v>
@@ -1911,16 +1965,16 @@
         <v>13</v>
       </c>
       <c r="B83" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C83" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="D83" t="s">
         <v>6</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1928,10 +1982,10 @@
         <v>13</v>
       </c>
       <c r="B84" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="C84" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="D84" t="s">
         <v>5</v>
@@ -1945,10 +1999,10 @@
         <v>13</v>
       </c>
       <c r="B85" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="C85" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="D85" t="s">
         <v>5</v>
@@ -1962,16 +2016,16 @@
         <v>13</v>
       </c>
       <c r="B86" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C86" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D86" t="s">
         <v>6</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1979,10 +2033,10 @@
         <v>13</v>
       </c>
       <c r="B87" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C87" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="D87" t="s">
         <v>6</v>
@@ -1996,10 +2050,10 @@
         <v>13</v>
       </c>
       <c r="B88" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="C88" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D88" t="s">
         <v>6</v>
@@ -2013,10 +2067,10 @@
         <v>13</v>
       </c>
       <c r="B89" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="C89" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D89" t="s">
         <v>5</v>
@@ -2030,10 +2084,10 @@
         <v>13</v>
       </c>
       <c r="B90" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="C90" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D90" t="s">
         <v>6</v>
@@ -2047,13 +2101,13 @@
         <v>13</v>
       </c>
       <c r="B91" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C91" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="D91" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="E91" t="s">
         <v>8</v>
@@ -2064,16 +2118,16 @@
         <v>14</v>
       </c>
       <c r="B92" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="C92" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="D92" t="s">
         <v>5</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2081,13 +2135,13 @@
         <v>14</v>
       </c>
       <c r="B93" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="C93" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="D93" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="E93" t="s">
         <v>5</v>
@@ -2098,10 +2152,10 @@
         <v>14</v>
       </c>
       <c r="B94" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="C94" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="D94" t="s">
         <v>6</v>
@@ -2115,16 +2169,16 @@
         <v>14</v>
       </c>
       <c r="B95" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="C95" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D95" t="s">
         <v>6</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2132,16 +2186,16 @@
         <v>14</v>
       </c>
       <c r="B96" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C96" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="D96" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2149,10 +2203,10 @@
         <v>14</v>
       </c>
       <c r="B97" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="C97" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="D97" t="s">
         <v>6</v>
@@ -2166,10 +2220,10 @@
         <v>14</v>
       </c>
       <c r="B98" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="C98" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="D98" t="s">
         <v>7</v>
@@ -2183,10 +2237,10 @@
         <v>14</v>
       </c>
       <c r="B99" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C99" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D99" t="s">
         <v>5</v>
@@ -2200,13 +2254,13 @@
         <v>14</v>
       </c>
       <c r="B100" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C100" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="D100" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="E100" t="s">
         <v>5</v>
@@ -2217,10 +2271,10 @@
         <v>14</v>
       </c>
       <c r="B101" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="C101" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D101" t="s">
         <v>5</v>
@@ -2234,16 +2288,16 @@
         <v>15</v>
       </c>
       <c r="B102" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C102" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="D102" t="s">
         <v>8</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2251,16 +2305,16 @@
         <v>15</v>
       </c>
       <c r="B103" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C103" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D103" t="s">
         <v>5</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2268,10 +2322,10 @@
         <v>15</v>
       </c>
       <c r="B104" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C104" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="D104" t="s">
         <v>8</v>
@@ -2285,10 +2339,10 @@
         <v>15</v>
       </c>
       <c r="B105" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C105" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D105" t="s">
         <v>7</v>
@@ -2302,10 +2356,10 @@
         <v>15</v>
       </c>
       <c r="B106" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="C106" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="D106" t="s">
         <v>5</v>
@@ -2319,16 +2373,16 @@
         <v>15</v>
       </c>
       <c r="B107" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="C107" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D107" t="s">
         <v>6</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2336,13 +2390,13 @@
         <v>15</v>
       </c>
       <c r="B108" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="C108" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="D108" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="E108" t="s">
         <v>6</v>
@@ -2353,13 +2407,13 @@
         <v>15</v>
       </c>
       <c r="B109" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="C109" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D109" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="E109" t="s">
         <v>5</v>
@@ -2370,13 +2424,13 @@
         <v>15</v>
       </c>
       <c r="B110" t="s">
+        <v>61</v>
+      </c>
+      <c r="C110" t="s">
         <v>43</v>
       </c>
-      <c r="C110" t="s">
-        <v>25</v>
-      </c>
       <c r="D110" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="E110" t="s">
         <v>5</v>
@@ -2387,10 +2441,10 @@
         <v>15</v>
       </c>
       <c r="B111" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="C111" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="D111" t="s">
         <v>6</v>
@@ -2404,16 +2458,16 @@
         <v>16</v>
       </c>
       <c r="B112" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="C112" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="D112" t="s">
         <v>8</v>
       </c>
       <c r="E112" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2421,13 +2475,13 @@
         <v>16</v>
       </c>
       <c r="B113" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="C113" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="D113" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="E113" t="s">
         <v>5</v>
@@ -2438,16 +2492,16 @@
         <v>16</v>
       </c>
       <c r="B114" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="C114" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="D114" t="s">
         <v>7</v>
       </c>
       <c r="E114" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2455,13 +2509,13 @@
         <v>16</v>
       </c>
       <c r="B115" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="C115" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D115" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="E115" t="s">
         <v>6</v>
@@ -2472,16 +2526,16 @@
         <v>16</v>
       </c>
       <c r="B116" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="C116" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="D116" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="E116" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2489,10 +2543,10 @@
         <v>16</v>
       </c>
       <c r="B117" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="C117" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D117" t="s">
         <v>5</v>
@@ -2506,10 +2560,10 @@
         <v>16</v>
       </c>
       <c r="B118" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C118" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D118" t="s">
         <v>5</v>
@@ -2523,10 +2577,10 @@
         <v>16</v>
       </c>
       <c r="B119" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="C119" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D119" t="s">
         <v>6</v>
@@ -2540,10 +2594,10 @@
         <v>16</v>
       </c>
       <c r="B120" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C120" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="D120" t="s">
         <v>5</v>
@@ -2557,10 +2611,10 @@
         <v>16</v>
       </c>
       <c r="B121" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C121" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="D121" t="s">
         <v>5</v>
@@ -2574,10 +2628,10 @@
         <v>17</v>
       </c>
       <c r="B122" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="C122" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D122" t="s">
         <v>5</v>
@@ -2591,16 +2645,16 @@
         <v>17</v>
       </c>
       <c r="B123" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="C123" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="D123" t="s">
         <v>5</v>
       </c>
       <c r="E123" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2608,10 +2662,10 @@
         <v>17</v>
       </c>
       <c r="B124" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C124" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="D124" t="s">
         <v>6</v>
@@ -2625,10 +2679,10 @@
         <v>17</v>
       </c>
       <c r="B125" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="C125" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D125" t="s">
         <v>5</v>
@@ -2642,10 +2696,10 @@
         <v>17</v>
       </c>
       <c r="B126" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C126" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D126" t="s">
         <v>6</v>
@@ -2659,10 +2713,10 @@
         <v>17</v>
       </c>
       <c r="B127" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="C127" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="D127" t="s">
         <v>6</v>
@@ -2676,13 +2730,13 @@
         <v>17</v>
       </c>
       <c r="B128" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C128" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D128" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="E128" t="s">
         <v>6</v>
@@ -2693,16 +2747,16 @@
         <v>17</v>
       </c>
       <c r="B129" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C129" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="D129" t="s">
         <v>6</v>
       </c>
       <c r="E129" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2710,13 +2764,13 @@
         <v>17</v>
       </c>
       <c r="B130" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="C130" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="D130" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="E130" t="s">
         <v>5</v>
@@ -2727,16 +2781,16 @@
         <v>17</v>
       </c>
       <c r="B131" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C131" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D131" t="s">
         <v>6</v>
       </c>
       <c r="E131" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2744,16 +2798,16 @@
         <v>18</v>
       </c>
       <c r="B132" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="C132" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="D132" t="s">
         <v>6</v>
       </c>
       <c r="E132" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2761,10 +2815,10 @@
         <v>18</v>
       </c>
       <c r="B133" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="C133" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="D133" t="s">
         <v>5</v>
@@ -2778,16 +2832,16 @@
         <v>18</v>
       </c>
       <c r="B134" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="C134" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D134" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="E134" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2795,10 +2849,10 @@
         <v>18</v>
       </c>
       <c r="B135" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="C135" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D135" t="s">
         <v>6</v>
@@ -2812,10 +2866,10 @@
         <v>18</v>
       </c>
       <c r="B136" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="C136" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="D136" t="s">
         <v>5</v>
@@ -2829,10 +2883,10 @@
         <v>18</v>
       </c>
       <c r="B137" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C137" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D137" t="s">
         <v>6</v>
@@ -2846,10 +2900,10 @@
         <v>18</v>
       </c>
       <c r="B138" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="C138" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="D138" t="s">
         <v>10</v>
@@ -2863,16 +2917,16 @@
         <v>18</v>
       </c>
       <c r="B139" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="C139" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="D139" t="s">
         <v>6</v>
       </c>
       <c r="E139" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2880,13 +2934,13 @@
         <v>18</v>
       </c>
       <c r="B140" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C140" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="D140" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="E140" t="s">
         <v>5</v>
@@ -2897,16 +2951,16 @@
         <v>18</v>
       </c>
       <c r="B141" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C141" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="D141" t="s">
         <v>5</v>
       </c>
       <c r="E141" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2914,16 +2968,16 @@
         <v>19</v>
       </c>
       <c r="B142" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="C142" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="D142" t="s">
         <v>6</v>
       </c>
       <c r="E142" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -2931,10 +2985,10 @@
         <v>19</v>
       </c>
       <c r="B143" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="C143" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="D143" t="s">
         <v>7</v>
@@ -2948,13 +3002,13 @@
         <v>19</v>
       </c>
       <c r="B144" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C144" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D144" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="E144" t="s">
         <v>6</v>
@@ -2965,16 +3019,16 @@
         <v>19</v>
       </c>
       <c r="B145" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="C145" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="D145" t="s">
         <v>7</v>
       </c>
       <c r="E145" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -2982,10 +3036,10 @@
         <v>19</v>
       </c>
       <c r="B146" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="C146" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D146" t="s">
         <v>6</v>
@@ -2999,10 +3053,10 @@
         <v>19</v>
       </c>
       <c r="B147" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C147" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D147" t="s">
         <v>5</v>
@@ -3016,16 +3070,16 @@
         <v>19</v>
       </c>
       <c r="B148" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C148" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D148" t="s">
         <v>7</v>
       </c>
       <c r="E148" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -3033,10 +3087,10 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="C149" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="D149" t="s">
         <v>5</v>
@@ -3050,10 +3104,10 @@
         <v>19</v>
       </c>
       <c r="B150" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C150" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D150" t="s">
         <v>6</v>
@@ -3067,16 +3121,16 @@
         <v>19</v>
       </c>
       <c r="B151" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C151" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="D151" t="s">
         <v>7</v>
       </c>
       <c r="E151" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3084,10 +3138,10 @@
         <v>20</v>
       </c>
       <c r="B152" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C152" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D152" t="s">
         <v>5</v>
@@ -3101,10 +3155,10 @@
         <v>20</v>
       </c>
       <c r="B153" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="C153" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="D153" t="s">
         <v>5</v>
@@ -3118,10 +3172,10 @@
         <v>20</v>
       </c>
       <c r="B154" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="C154" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D154" t="s">
         <v>6</v>
@@ -3135,10 +3189,10 @@
         <v>20</v>
       </c>
       <c r="B155" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="C155" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="D155" t="s">
         <v>5</v>
@@ -3152,16 +3206,16 @@
         <v>20</v>
       </c>
       <c r="B156" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="C156" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="D156" t="s">
         <v>5</v>
       </c>
       <c r="E156" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3169,10 +3223,10 @@
         <v>20</v>
       </c>
       <c r="B157" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="C157" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="D157" t="s">
         <v>6</v>
@@ -3186,13 +3240,13 @@
         <v>20</v>
       </c>
       <c r="B158" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="C158" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="D158" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="E158" t="s">
         <v>5</v>
@@ -3203,10 +3257,10 @@
         <v>20</v>
       </c>
       <c r="B159" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C159" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="D159" t="s">
         <v>5</v>
@@ -3220,16 +3274,16 @@
         <v>20</v>
       </c>
       <c r="B160" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="C160" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D160" t="s">
         <v>5</v>
       </c>
       <c r="E160" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3237,10 +3291,10 @@
         <v>20</v>
       </c>
       <c r="B161" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="C161" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="D161" t="s">
         <v>5</v>
@@ -3254,10 +3308,10 @@
         <v>21</v>
       </c>
       <c r="B162" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C162" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="D162" t="s">
         <v>6</v>
@@ -3271,16 +3325,16 @@
         <v>21</v>
       </c>
       <c r="B163" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C163" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="D163" t="s">
         <v>5</v>
       </c>
       <c r="E163" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3288,10 +3342,10 @@
         <v>21</v>
       </c>
       <c r="B164" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C164" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D164" t="s">
         <v>6</v>
@@ -3305,10 +3359,10 @@
         <v>21</v>
       </c>
       <c r="B165" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C165" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="D165" t="s">
         <v>5</v>
@@ -3322,10 +3376,10 @@
         <v>21</v>
       </c>
       <c r="B166" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C166" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="D166" t="s">
         <v>6</v>
@@ -3339,16 +3393,16 @@
         <v>21</v>
       </c>
       <c r="B167" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="C167" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D167" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="E167" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3356,13 +3410,13 @@
         <v>21</v>
       </c>
       <c r="B168" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C168" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D168" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="E168" t="s">
         <v>6</v>
@@ -3373,10 +3427,10 @@
         <v>21</v>
       </c>
       <c r="B169" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C169" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="D169" t="s">
         <v>6</v>
@@ -3390,16 +3444,16 @@
         <v>21</v>
       </c>
       <c r="B170" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C170" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="D170" t="s">
         <v>6</v>
       </c>
       <c r="E170" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3407,10 +3461,10 @@
         <v>21</v>
       </c>
       <c r="B171" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="C171" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D171" t="s">
         <v>5</v>
@@ -3424,10 +3478,10 @@
         <v>22</v>
       </c>
       <c r="B172" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="C172" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="D172" t="s">
         <v>9</v>
@@ -3441,10 +3495,10 @@
         <v>22</v>
       </c>
       <c r="B173" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="C173" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="D173" t="s">
         <v>6</v>
@@ -3458,10 +3512,10 @@
         <v>22</v>
       </c>
       <c r="B174" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="C174" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D174" t="s">
         <v>6</v>
@@ -3475,16 +3529,16 @@
         <v>22</v>
       </c>
       <c r="B175" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="C175" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="D175" t="s">
         <v>5</v>
       </c>
       <c r="E175" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3492,13 +3546,13 @@
         <v>22</v>
       </c>
       <c r="B176" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="C176" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="D176" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="E176" t="s">
         <v>6</v>
@@ -3509,13 +3563,13 @@
         <v>22</v>
       </c>
       <c r="B177" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="C177" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D177" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="E177" t="s">
         <v>5</v>
@@ -3526,10 +3580,10 @@
         <v>22</v>
       </c>
       <c r="B178" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="C178" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="D178" t="s">
         <v>5</v>
@@ -3543,10 +3597,10 @@
         <v>22</v>
       </c>
       <c r="B179" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="C179" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D179" t="s">
         <v>12</v>
@@ -3560,16 +3614,16 @@
         <v>22</v>
       </c>
       <c r="B180" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="C180" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D180" t="s">
         <v>6</v>
       </c>
       <c r="E180" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3577,16 +3631,16 @@
         <v>22</v>
       </c>
       <c r="B181" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="C181" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="D181" t="s">
         <v>5</v>
       </c>
       <c r="E181" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3594,16 +3648,16 @@
         <v>23</v>
       </c>
       <c r="B182" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C182" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D182" t="s">
         <v>6</v>
       </c>
       <c r="E182" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3611,13 +3665,13 @@
         <v>23</v>
       </c>
       <c r="B183" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C183" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D183" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="E183" t="s">
         <v>6</v>
@@ -3628,13 +3682,13 @@
         <v>23</v>
       </c>
       <c r="B184" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C184" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="D184" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="E184" t="s">
         <v>5</v>
@@ -3645,13 +3699,13 @@
         <v>23</v>
       </c>
       <c r="B185" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C185" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="D185" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="E185" t="s">
         <v>5</v>
@@ -3662,10 +3716,10 @@
         <v>23</v>
       </c>
       <c r="B186" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C186" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="D186" t="s">
         <v>5</v>
@@ -3679,13 +3733,13 @@
         <v>23</v>
       </c>
       <c r="B187" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="C187" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="D187" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="E187" t="s">
         <v>6</v>
@@ -3696,16 +3750,3127 @@
         <v>23</v>
       </c>
       <c r="B188" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C188" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D188" t="s">
         <v>7</v>
       </c>
       <c r="E188" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" t="s">
+        <v>23</v>
+      </c>
+      <c r="B189" t="s">
+        <v>59</v>
+      </c>
+      <c r="C189" t="s">
+        <v>61</v>
+      </c>
+      <c r="D189" t="s">
+        <v>5</v>
+      </c>
+      <c r="E189" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" t="s">
+        <v>23</v>
+      </c>
+      <c r="B190" t="s">
+        <v>54</v>
+      </c>
+      <c r="C190" t="s">
+        <v>56</v>
+      </c>
+      <c r="D190" t="s">
+        <v>62</v>
+      </c>
+      <c r="E190" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" t="s">
+        <v>23</v>
+      </c>
+      <c r="B191" t="s">
+        <v>47</v>
+      </c>
+      <c r="C191" t="s">
+        <v>42</v>
+      </c>
+      <c r="D191" t="s">
+        <v>8</v>
+      </c>
+      <c r="E191" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" t="s">
+        <v>24</v>
+      </c>
+      <c r="B192" t="s">
+        <v>59</v>
+      </c>
+      <c r="C192" t="s">
+        <v>49</v>
+      </c>
+      <c r="D192" t="s">
+        <v>6</v>
+      </c>
+      <c r="E192" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" t="s">
+        <v>24</v>
+      </c>
+      <c r="B193" t="s">
+        <v>44</v>
+      </c>
+      <c r="C193" t="s">
+        <v>48</v>
+      </c>
+      <c r="D193" t="s">
+        <v>5</v>
+      </c>
+      <c r="E193" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" t="s">
+        <v>24</v>
+      </c>
+      <c r="B194" t="s">
+        <v>56</v>
+      </c>
+      <c r="C194" t="s">
+        <v>52</v>
+      </c>
+      <c r="D194" t="s">
+        <v>6</v>
+      </c>
+      <c r="E194" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" t="s">
+        <v>24</v>
+      </c>
+      <c r="B195" t="s">
+        <v>61</v>
+      </c>
+      <c r="C195" t="s">
+        <v>54</v>
+      </c>
+      <c r="D195" t="s">
+        <v>5</v>
+      </c>
+      <c r="E195" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" t="s">
+        <v>24</v>
+      </c>
+      <c r="B196" t="s">
+        <v>58</v>
+      </c>
+      <c r="C196" t="s">
+        <v>43</v>
+      </c>
+      <c r="D196" t="s">
+        <v>6</v>
+      </c>
+      <c r="E196" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" t="s">
+        <v>24</v>
+      </c>
+      <c r="B197" t="s">
+        <v>42</v>
+      </c>
+      <c r="C197" t="s">
+        <v>55</v>
+      </c>
+      <c r="D197" t="s">
+        <v>6</v>
+      </c>
+      <c r="E197" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" t="s">
+        <v>24</v>
+      </c>
+      <c r="B198" t="s">
+        <v>51</v>
+      </c>
+      <c r="C198" t="s">
+        <v>45</v>
+      </c>
+      <c r="D198" t="s">
+        <v>62</v>
+      </c>
+      <c r="E198" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" t="s">
+        <v>24</v>
+      </c>
+      <c r="B199" t="s">
+        <v>47</v>
+      </c>
+      <c r="C199" t="s">
+        <v>46</v>
+      </c>
+      <c r="D199" t="s">
+        <v>5</v>
+      </c>
+      <c r="E199" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" t="s">
+        <v>24</v>
+      </c>
+      <c r="B200" t="s">
+        <v>57</v>
+      </c>
+      <c r="C200" t="s">
+        <v>60</v>
+      </c>
+      <c r="D200" t="s">
+        <v>6</v>
+      </c>
+      <c r="E200" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" t="s">
+        <v>24</v>
+      </c>
+      <c r="B201" t="s">
+        <v>53</v>
+      </c>
+      <c r="C201" t="s">
+        <v>50</v>
+      </c>
+      <c r="D201" t="s">
+        <v>5</v>
+      </c>
+      <c r="E201" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" t="s">
+        <v>25</v>
+      </c>
+      <c r="B202" t="s">
+        <v>61</v>
+      </c>
+      <c r="C202" t="s">
+        <v>44</v>
+      </c>
+      <c r="D202" t="s">
+        <v>62</v>
+      </c>
+      <c r="E202" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" t="s">
+        <v>25</v>
+      </c>
+      <c r="B203" t="s">
+        <v>60</v>
+      </c>
+      <c r="C203" t="s">
+        <v>56</v>
+      </c>
+      <c r="D203" t="s">
+        <v>6</v>
+      </c>
+      <c r="E203" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" t="s">
+        <v>25</v>
+      </c>
+      <c r="B204" t="s">
+        <v>55</v>
+      </c>
+      <c r="C204" t="s">
+        <v>58</v>
+      </c>
+      <c r="D204" t="s">
+        <v>5</v>
+      </c>
+      <c r="E204" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" t="s">
+        <v>25</v>
+      </c>
+      <c r="B205" t="s">
+        <v>49</v>
+      </c>
+      <c r="C205" t="s">
+        <v>57</v>
+      </c>
+      <c r="D205" t="s">
+        <v>62</v>
+      </c>
+      <c r="E205" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" t="s">
+        <v>25</v>
+      </c>
+      <c r="B206" t="s">
+        <v>52</v>
+      </c>
+      <c r="C206" t="s">
+        <v>53</v>
+      </c>
+      <c r="D206" t="s">
+        <v>5</v>
+      </c>
+      <c r="E206" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" t="s">
+        <v>25</v>
+      </c>
+      <c r="B207" t="s">
+        <v>46</v>
+      </c>
+      <c r="C207" t="s">
+        <v>59</v>
+      </c>
+      <c r="D207" t="s">
+        <v>5</v>
+      </c>
+      <c r="E207" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" t="s">
+        <v>25</v>
+      </c>
+      <c r="B208" t="s">
+        <v>54</v>
+      </c>
+      <c r="C208" t="s">
+        <v>42</v>
+      </c>
+      <c r="D208" t="s">
+        <v>5</v>
+      </c>
+      <c r="E208" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" t="s">
+        <v>25</v>
+      </c>
+      <c r="B209" t="s">
+        <v>50</v>
+      </c>
+      <c r="C209" t="s">
+        <v>47</v>
+      </c>
+      <c r="D209" t="s">
+        <v>5</v>
+      </c>
+      <c r="E209" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" t="s">
+        <v>25</v>
+      </c>
+      <c r="B210" t="s">
+        <v>45</v>
+      </c>
+      <c r="C210" t="s">
+        <v>43</v>
+      </c>
+      <c r="D210" t="s">
+        <v>6</v>
+      </c>
+      <c r="E210" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" t="s">
+        <v>25</v>
+      </c>
+      <c r="B211" t="s">
+        <v>48</v>
+      </c>
+      <c r="C211" t="s">
+        <v>51</v>
+      </c>
+      <c r="D211" t="s">
+        <v>62</v>
+      </c>
+      <c r="E211" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" t="s">
+        <v>26</v>
+      </c>
+      <c r="B212" t="s">
+        <v>42</v>
+      </c>
+      <c r="C212" t="s">
+        <v>52</v>
+      </c>
+      <c r="D212" t="s">
+        <v>5</v>
+      </c>
+      <c r="E212" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" t="s">
+        <v>26</v>
+      </c>
+      <c r="B213" t="s">
+        <v>56</v>
+      </c>
+      <c r="C213" t="s">
+        <v>49</v>
+      </c>
+      <c r="D213" t="s">
+        <v>6</v>
+      </c>
+      <c r="E213" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" t="s">
+        <v>26</v>
+      </c>
+      <c r="B214" t="s">
+        <v>44</v>
+      </c>
+      <c r="C214" t="s">
+        <v>60</v>
+      </c>
+      <c r="D214" t="s">
+        <v>5</v>
+      </c>
+      <c r="E214" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" t="s">
+        <v>26</v>
+      </c>
+      <c r="B215" t="s">
+        <v>47</v>
+      </c>
+      <c r="C215" t="s">
+        <v>58</v>
+      </c>
+      <c r="D215" t="s">
+        <v>62</v>
+      </c>
+      <c r="E215" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" t="s">
+        <v>26</v>
+      </c>
+      <c r="B216" t="s">
+        <v>53</v>
+      </c>
+      <c r="C216" t="s">
+        <v>55</v>
+      </c>
+      <c r="D216" t="s">
+        <v>6</v>
+      </c>
+      <c r="E216" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" t="s">
+        <v>26</v>
+      </c>
+      <c r="B217" t="s">
+        <v>59</v>
+      </c>
+      <c r="C217" t="s">
+        <v>45</v>
+      </c>
+      <c r="D217" t="s">
+        <v>62</v>
+      </c>
+      <c r="E217" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" t="s">
+        <v>26</v>
+      </c>
+      <c r="B218" t="s">
+        <v>51</v>
+      </c>
+      <c r="C218" t="s">
+        <v>46</v>
+      </c>
+      <c r="D218" t="s">
+        <v>5</v>
+      </c>
+      <c r="E218" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" t="s">
+        <v>26</v>
+      </c>
+      <c r="B219" t="s">
+        <v>57</v>
+      </c>
+      <c r="C219" t="s">
+        <v>61</v>
+      </c>
+      <c r="D219" t="s">
+        <v>7</v>
+      </c>
+      <c r="E219" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" t="s">
+        <v>26</v>
+      </c>
+      <c r="B220" t="s">
+        <v>50</v>
+      </c>
+      <c r="C220" t="s">
+        <v>48</v>
+      </c>
+      <c r="D220" t="s">
+        <v>5</v>
+      </c>
+      <c r="E220" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" t="s">
+        <v>26</v>
+      </c>
+      <c r="B221" t="s">
+        <v>43</v>
+      </c>
+      <c r="C221" t="s">
+        <v>54</v>
+      </c>
+      <c r="D221" t="s">
+        <v>62</v>
+      </c>
+      <c r="E221" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" t="s">
+        <v>27</v>
+      </c>
+      <c r="B222" t="s">
+        <v>55</v>
+      </c>
+      <c r="C222" t="s">
+        <v>57</v>
+      </c>
+      <c r="D222" t="s">
+        <v>62</v>
+      </c>
+      <c r="E222" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" t="s">
+        <v>27</v>
+      </c>
+      <c r="B223" t="s">
+        <v>43</v>
+      </c>
+      <c r="C223" t="s">
+        <v>59</v>
+      </c>
+      <c r="D223" t="s">
+        <v>5</v>
+      </c>
+      <c r="E223" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" t="s">
+        <v>27</v>
+      </c>
+      <c r="B224" t="s">
+        <v>45</v>
+      </c>
+      <c r="C224" t="s">
+        <v>42</v>
+      </c>
+      <c r="D224" t="s">
+        <v>62</v>
+      </c>
+      <c r="E224" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" t="s">
+        <v>27</v>
+      </c>
+      <c r="B225" t="s">
+        <v>54</v>
+      </c>
+      <c r="C225" t="s">
+        <v>53</v>
+      </c>
+      <c r="D225" t="s">
+        <v>7</v>
+      </c>
+      <c r="E225" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" t="s">
+        <v>27</v>
+      </c>
+      <c r="B226" t="s">
+        <v>58</v>
+      </c>
+      <c r="C226" t="s">
+        <v>44</v>
+      </c>
+      <c r="D226" t="s">
+        <v>5</v>
+      </c>
+      <c r="E226" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" t="s">
+        <v>27</v>
+      </c>
+      <c r="B227" t="s">
+        <v>46</v>
+      </c>
+      <c r="C227" t="s">
+        <v>56</v>
+      </c>
+      <c r="D227" t="s">
+        <v>5</v>
+      </c>
+      <c r="E227" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" t="s">
+        <v>27</v>
+      </c>
+      <c r="B228" t="s">
+        <v>48</v>
+      </c>
+      <c r="C228" t="s">
+        <v>47</v>
+      </c>
+      <c r="D228" t="s">
+        <v>62</v>
+      </c>
+      <c r="E228" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" t="s">
+        <v>27</v>
+      </c>
+      <c r="B229" t="s">
+        <v>49</v>
+      </c>
+      <c r="C229" t="s">
+        <v>51</v>
+      </c>
+      <c r="D229" t="s">
+        <v>62</v>
+      </c>
+      <c r="E229" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" t="s">
+        <v>27</v>
+      </c>
+      <c r="B230" t="s">
+        <v>60</v>
+      </c>
+      <c r="C230" t="s">
+        <v>50</v>
+      </c>
+      <c r="D230" t="s">
+        <v>5</v>
+      </c>
+      <c r="E230" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" t="s">
+        <v>27</v>
+      </c>
+      <c r="B231" t="s">
+        <v>52</v>
+      </c>
+      <c r="C231" t="s">
+        <v>61</v>
+      </c>
+      <c r="D231" t="s">
+        <v>6</v>
+      </c>
+      <c r="E231" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" t="s">
+        <v>28</v>
+      </c>
+      <c r="B232" t="s">
+        <v>56</v>
+      </c>
+      <c r="C232" t="s">
+        <v>57</v>
+      </c>
+      <c r="D232" t="s">
+        <v>62</v>
+      </c>
+      <c r="E232" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" t="s">
+        <v>28</v>
+      </c>
+      <c r="B233" t="s">
+        <v>44</v>
+      </c>
+      <c r="C233" t="s">
+        <v>55</v>
+      </c>
+      <c r="D233" t="s">
+        <v>62</v>
+      </c>
+      <c r="E233" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" t="s">
+        <v>28</v>
+      </c>
+      <c r="B234" t="s">
+        <v>59</v>
+      </c>
+      <c r="C234" t="s">
+        <v>54</v>
+      </c>
+      <c r="D234" t="s">
+        <v>5</v>
+      </c>
+      <c r="E234" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" t="s">
+        <v>28</v>
+      </c>
+      <c r="B235" t="s">
+        <v>48</v>
+      </c>
+      <c r="C235" t="s">
+        <v>45</v>
+      </c>
+      <c r="D235" t="s">
+        <v>7</v>
+      </c>
+      <c r="E235" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" t="s">
+        <v>28</v>
+      </c>
+      <c r="B236" t="s">
+        <v>53</v>
+      </c>
+      <c r="C236" t="s">
+        <v>49</v>
+      </c>
+      <c r="D236" t="s">
+        <v>6</v>
+      </c>
+      <c r="E236" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" t="s">
+        <v>28</v>
+      </c>
+      <c r="B237" t="s">
+        <v>42</v>
+      </c>
+      <c r="C237" t="s">
+        <v>58</v>
+      </c>
+      <c r="D237" t="s">
+        <v>6</v>
+      </c>
+      <c r="E237" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" t="s">
+        <v>28</v>
+      </c>
+      <c r="B238" t="s">
+        <v>50</v>
+      </c>
+      <c r="C238" t="s">
+        <v>46</v>
+      </c>
+      <c r="D238" t="s">
+        <v>62</v>
+      </c>
+      <c r="E238" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" t="s">
+        <v>28</v>
+      </c>
+      <c r="B239" t="s">
+        <v>47</v>
+      </c>
+      <c r="C239" t="s">
+        <v>43</v>
+      </c>
+      <c r="D239" t="s">
+        <v>5</v>
+      </c>
+      <c r="E239" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" t="s">
+        <v>28</v>
+      </c>
+      <c r="B240" t="s">
+        <v>61</v>
+      </c>
+      <c r="C240" t="s">
+        <v>60</v>
+      </c>
+      <c r="D240" t="s">
+        <v>6</v>
+      </c>
+      <c r="E240" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" t="s">
+        <v>28</v>
+      </c>
+      <c r="B241" t="s">
+        <v>51</v>
+      </c>
+      <c r="C241" t="s">
+        <v>52</v>
+      </c>
+      <c r="D241" t="s">
+        <v>8</v>
+      </c>
+      <c r="E241" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" t="s">
+        <v>29</v>
+      </c>
+      <c r="B242" t="s">
+        <v>57</v>
+      </c>
+      <c r="C242" t="s">
+        <v>47</v>
+      </c>
+      <c r="D242" t="s">
+        <v>62</v>
+      </c>
+      <c r="E242" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" t="s">
+        <v>29</v>
+      </c>
+      <c r="B243" t="s">
+        <v>45</v>
+      </c>
+      <c r="C243" t="s">
+        <v>56</v>
+      </c>
+      <c r="D243" t="s">
+        <v>6</v>
+      </c>
+      <c r="E243" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" t="s">
+        <v>29</v>
+      </c>
+      <c r="B244" t="s">
+        <v>58</v>
+      </c>
+      <c r="C244" t="s">
+        <v>53</v>
+      </c>
+      <c r="D244" t="s">
+        <v>62</v>
+      </c>
+      <c r="E244" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" t="s">
+        <v>29</v>
+      </c>
+      <c r="B245" t="s">
+        <v>46</v>
+      </c>
+      <c r="C245" t="s">
+        <v>42</v>
+      </c>
+      <c r="D245" t="s">
+        <v>6</v>
+      </c>
+      <c r="E245" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" t="s">
+        <v>29</v>
+      </c>
+      <c r="B246" t="s">
+        <v>49</v>
+      </c>
+      <c r="C246" t="s">
+        <v>50</v>
+      </c>
+      <c r="D246" t="s">
+        <v>62</v>
+      </c>
+      <c r="E246" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" t="s">
+        <v>29</v>
+      </c>
+      <c r="B247" t="s">
+        <v>43</v>
+      </c>
+      <c r="C247" t="s">
+        <v>48</v>
+      </c>
+      <c r="D247" t="s">
+        <v>62</v>
+      </c>
+      <c r="E247" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" t="s">
+        <v>29</v>
+      </c>
+      <c r="B248" t="s">
+        <v>54</v>
+      </c>
+      <c r="C248" t="s">
+        <v>44</v>
+      </c>
+      <c r="D248" t="s">
+        <v>6</v>
+      </c>
+      <c r="E248" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" t="s">
+        <v>29</v>
+      </c>
+      <c r="B249" t="s">
+        <v>60</v>
+      </c>
+      <c r="C249" t="s">
+        <v>51</v>
+      </c>
+      <c r="D249" t="s">
+        <v>5</v>
+      </c>
+      <c r="E249" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" t="s">
+        <v>29</v>
+      </c>
+      <c r="B250" t="s">
+        <v>55</v>
+      </c>
+      <c r="C250" t="s">
+        <v>61</v>
+      </c>
+      <c r="D250" t="s">
+        <v>7</v>
+      </c>
+      <c r="E250" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" t="s">
+        <v>29</v>
+      </c>
+      <c r="B251" t="s">
+        <v>52</v>
+      </c>
+      <c r="C251" t="s">
+        <v>59</v>
+      </c>
+      <c r="D251" t="s">
+        <v>5</v>
+      </c>
+      <c r="E251" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" t="s">
+        <v>30</v>
+      </c>
+      <c r="B252" t="s">
+        <v>49</v>
+      </c>
+      <c r="C252" t="s">
+        <v>54</v>
+      </c>
+      <c r="D252" t="s">
+        <v>6</v>
+      </c>
+      <c r="E252" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" t="s">
+        <v>30</v>
+      </c>
+      <c r="B253" t="s">
+        <v>56</v>
+      </c>
+      <c r="C253" t="s">
+        <v>53</v>
+      </c>
+      <c r="D253" t="s">
+        <v>62</v>
+      </c>
+      <c r="E253" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" t="s">
+        <v>30</v>
+      </c>
+      <c r="B254" t="s">
+        <v>57</v>
+      </c>
+      <c r="C254" t="s">
+        <v>58</v>
+      </c>
+      <c r="D254" t="s">
+        <v>6</v>
+      </c>
+      <c r="E254" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" t="s">
+        <v>30</v>
+      </c>
+      <c r="B255" t="s">
+        <v>59</v>
+      </c>
+      <c r="C255" t="s">
+        <v>47</v>
+      </c>
+      <c r="D255" t="s">
+        <v>62</v>
+      </c>
+      <c r="E255" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" t="s">
+        <v>30</v>
+      </c>
+      <c r="B256" t="s">
+        <v>44</v>
+      </c>
+      <c r="C256" t="s">
+        <v>52</v>
+      </c>
+      <c r="D256" t="s">
+        <v>62</v>
+      </c>
+      <c r="E256" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" t="s">
+        <v>30</v>
+      </c>
+      <c r="B257" t="s">
+        <v>61</v>
+      </c>
+      <c r="C257" t="s">
+        <v>46</v>
+      </c>
+      <c r="D257" t="s">
+        <v>62</v>
+      </c>
+      <c r="E257" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" t="s">
+        <v>30</v>
+      </c>
+      <c r="B258" t="s">
+        <v>50</v>
+      </c>
+      <c r="C258" t="s">
+        <v>45</v>
+      </c>
+      <c r="D258" t="s">
+        <v>5</v>
+      </c>
+      <c r="E258" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" t="s">
+        <v>30</v>
+      </c>
+      <c r="B259" t="s">
+        <v>60</v>
+      </c>
+      <c r="C259" t="s">
+        <v>55</v>
+      </c>
+      <c r="D259" t="s">
+        <v>7</v>
+      </c>
+      <c r="E259" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" t="s">
+        <v>30</v>
+      </c>
+      <c r="B260" t="s">
+        <v>51</v>
+      </c>
+      <c r="C260" t="s">
+        <v>43</v>
+      </c>
+      <c r="D260" t="s">
+        <v>8</v>
+      </c>
+      <c r="E260" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" t="s">
+        <v>30</v>
+      </c>
+      <c r="B261" t="s">
+        <v>42</v>
+      </c>
+      <c r="C261" t="s">
+        <v>48</v>
+      </c>
+      <c r="D261" t="s">
+        <v>5</v>
+      </c>
+      <c r="E261" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" t="s">
+        <v>31</v>
+      </c>
+      <c r="B262" t="s">
+        <v>55</v>
+      </c>
+      <c r="C262" t="s">
+        <v>49</v>
+      </c>
+      <c r="D262" t="s">
+        <v>5</v>
+      </c>
+      <c r="E262" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" t="s">
+        <v>31</v>
+      </c>
+      <c r="B263" t="s">
+        <v>58</v>
+      </c>
+      <c r="C263" t="s">
+        <v>56</v>
+      </c>
+      <c r="D263" t="s">
+        <v>6</v>
+      </c>
+      <c r="E263" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" t="s">
+        <v>31</v>
+      </c>
+      <c r="B264" t="s">
+        <v>45</v>
+      </c>
+      <c r="C264" t="s">
+        <v>61</v>
+      </c>
+      <c r="D264" t="s">
+        <v>5</v>
+      </c>
+      <c r="E264" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" t="s">
+        <v>31</v>
+      </c>
+      <c r="B265" t="s">
+        <v>48</v>
+      </c>
+      <c r="C265" t="s">
+        <v>59</v>
+      </c>
+      <c r="D265" t="s">
+        <v>6</v>
+      </c>
+      <c r="E265" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" t="s">
+        <v>31</v>
+      </c>
+      <c r="B266" t="s">
+        <v>53</v>
+      </c>
+      <c r="C266" t="s">
+        <v>42</v>
+      </c>
+      <c r="D266" t="s">
+        <v>7</v>
+      </c>
+      <c r="E266" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" t="s">
+        <v>31</v>
+      </c>
+      <c r="B267" t="s">
+        <v>43</v>
+      </c>
+      <c r="C267" t="s">
+        <v>50</v>
+      </c>
+      <c r="D267" t="s">
+        <v>7</v>
+      </c>
+      <c r="E267" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" t="s">
+        <v>31</v>
+      </c>
+      <c r="B268" t="s">
+        <v>46</v>
+      </c>
+      <c r="C268" t="s">
+        <v>44</v>
+      </c>
+      <c r="D268" t="s">
+        <v>5</v>
+      </c>
+      <c r="E268" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" t="s">
+        <v>31</v>
+      </c>
+      <c r="B269" t="s">
+        <v>52</v>
+      </c>
+      <c r="C269" t="s">
+        <v>57</v>
+      </c>
+      <c r="D269" t="s">
+        <v>62</v>
+      </c>
+      <c r="E269" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" t="s">
+        <v>31</v>
+      </c>
+      <c r="B270" t="s">
+        <v>47</v>
+      </c>
+      <c r="C270" t="s">
+        <v>60</v>
+      </c>
+      <c r="D270" t="s">
+        <v>5</v>
+      </c>
+      <c r="E270" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" t="s">
+        <v>31</v>
+      </c>
+      <c r="B271" t="s">
+        <v>54</v>
+      </c>
+      <c r="C271" t="s">
+        <v>51</v>
+      </c>
+      <c r="D271" t="s">
+        <v>62</v>
+      </c>
+      <c r="E271" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" t="s">
+        <v>32</v>
+      </c>
+      <c r="B272" t="s">
+        <v>61</v>
+      </c>
+      <c r="C272" t="s">
+        <v>58</v>
+      </c>
+      <c r="D272" t="s">
+        <v>5</v>
+      </c>
+      <c r="E272" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" t="s">
+        <v>32</v>
+      </c>
+      <c r="B273" t="s">
+        <v>54</v>
+      </c>
+      <c r="C273" t="s">
+        <v>46</v>
+      </c>
+      <c r="D273" t="s">
+        <v>62</v>
+      </c>
+      <c r="E273" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274" t="s">
+        <v>32</v>
+      </c>
+      <c r="B274" t="s">
+        <v>51</v>
+      </c>
+      <c r="C274" t="s">
+        <v>50</v>
+      </c>
+      <c r="D274" t="s">
+        <v>5</v>
+      </c>
+      <c r="E274" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275" t="s">
+        <v>32</v>
+      </c>
+      <c r="B275" t="s">
+        <v>59</v>
+      </c>
+      <c r="C275" t="s">
+        <v>53</v>
+      </c>
+      <c r="D275" t="s">
+        <v>7</v>
+      </c>
+      <c r="E275" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276" t="s">
+        <v>32</v>
+      </c>
+      <c r="B276" t="s">
+        <v>45</v>
+      </c>
+      <c r="C276" t="s">
+        <v>47</v>
+      </c>
+      <c r="D276" t="s">
+        <v>62</v>
+      </c>
+      <c r="E276" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277" t="s">
+        <v>32</v>
+      </c>
+      <c r="B277" t="s">
+        <v>49</v>
+      </c>
+      <c r="C277" t="s">
+        <v>48</v>
+      </c>
+      <c r="D277" t="s">
+        <v>5</v>
+      </c>
+      <c r="E277" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278" t="s">
+        <v>32</v>
+      </c>
+      <c r="B278" t="s">
+        <v>60</v>
+      </c>
+      <c r="C278" t="s">
+        <v>43</v>
+      </c>
+      <c r="D278" t="s">
+        <v>7</v>
+      </c>
+      <c r="E278" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279" t="s">
+        <v>32</v>
+      </c>
+      <c r="B279" t="s">
+        <v>57</v>
+      </c>
+      <c r="C279" t="s">
+        <v>42</v>
+      </c>
+      <c r="D279" t="s">
+        <v>62</v>
+      </c>
+      <c r="E279" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="A280" t="s">
+        <v>32</v>
+      </c>
+      <c r="B280" t="s">
+        <v>56</v>
+      </c>
+      <c r="C280" t="s">
+        <v>44</v>
+      </c>
+      <c r="D280" t="s">
+        <v>5</v>
+      </c>
+      <c r="E280" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="A281" t="s">
+        <v>32</v>
+      </c>
+      <c r="B281" t="s">
+        <v>55</v>
+      </c>
+      <c r="C281" t="s">
+        <v>52</v>
+      </c>
+      <c r="D281" t="s">
+        <v>5</v>
+      </c>
+      <c r="E281" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282" t="s">
+        <v>33</v>
+      </c>
+      <c r="B282" t="s">
+        <v>48</v>
+      </c>
+      <c r="C282" t="s">
+        <v>54</v>
+      </c>
+      <c r="D282" t="s">
+        <v>5</v>
+      </c>
+      <c r="E282" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="A283" t="s">
+        <v>33</v>
+      </c>
+      <c r="B283" t="s">
+        <v>44</v>
+      </c>
+      <c r="C283" t="s">
+        <v>57</v>
+      </c>
+      <c r="D283" t="s">
+        <v>5</v>
+      </c>
+      <c r="E283" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284" t="s">
+        <v>33</v>
+      </c>
+      <c r="B284" t="s">
+        <v>42</v>
+      </c>
+      <c r="C284" t="s">
+        <v>56</v>
+      </c>
+      <c r="D284" t="s">
+        <v>62</v>
+      </c>
+      <c r="E284" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285" t="s">
+        <v>33</v>
+      </c>
+      <c r="B285" t="s">
+        <v>53</v>
+      </c>
+      <c r="C285" t="s">
+        <v>45</v>
+      </c>
+      <c r="D285" t="s">
+        <v>6</v>
+      </c>
+      <c r="E285" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="A286" t="s">
+        <v>33</v>
+      </c>
+      <c r="B286" t="s">
+        <v>46</v>
+      </c>
+      <c r="C286" t="s">
+        <v>49</v>
+      </c>
+      <c r="D286" t="s">
+        <v>5</v>
+      </c>
+      <c r="E286" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="A287" t="s">
+        <v>33</v>
+      </c>
+      <c r="B287" t="s">
+        <v>58</v>
+      </c>
+      <c r="C287" t="s">
+        <v>59</v>
+      </c>
+      <c r="D287" t="s">
+        <v>62</v>
+      </c>
+      <c r="E287" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="A288" t="s">
+        <v>33</v>
+      </c>
+      <c r="B288" t="s">
+        <v>43</v>
+      </c>
+      <c r="C288" t="s">
+        <v>61</v>
+      </c>
+      <c r="D288" t="s">
+        <v>6</v>
+      </c>
+      <c r="E288" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="A289" t="s">
+        <v>33</v>
+      </c>
+      <c r="B289" t="s">
+        <v>50</v>
+      </c>
+      <c r="C289" t="s">
+        <v>55</v>
+      </c>
+      <c r="D289" t="s">
+        <v>6</v>
+      </c>
+      <c r="E289" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5">
+      <c r="A290" t="s">
+        <v>33</v>
+      </c>
+      <c r="B290" t="s">
+        <v>52</v>
+      </c>
+      <c r="C290" t="s">
+        <v>60</v>
+      </c>
+      <c r="D290" t="s">
+        <v>62</v>
+      </c>
+      <c r="E290" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5">
+      <c r="A291" t="s">
+        <v>33</v>
+      </c>
+      <c r="B291" t="s">
+        <v>47</v>
+      </c>
+      <c r="C291" t="s">
+        <v>51</v>
+      </c>
+      <c r="D291" t="s">
+        <v>6</v>
+      </c>
+      <c r="E291" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5">
+      <c r="A292" t="s">
+        <v>34</v>
+      </c>
+      <c r="B292" t="s">
+        <v>61</v>
+      </c>
+      <c r="C292" t="s">
+        <v>56</v>
+      </c>
+      <c r="D292" t="s">
+        <v>5</v>
+      </c>
+      <c r="E292" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5">
+      <c r="A293" t="s">
+        <v>34</v>
+      </c>
+      <c r="B293" t="s">
+        <v>49</v>
+      </c>
+      <c r="C293" t="s">
+        <v>47</v>
+      </c>
+      <c r="D293" t="s">
+        <v>62</v>
+      </c>
+      <c r="E293" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5">
+      <c r="A294" t="s">
+        <v>34</v>
+      </c>
+      <c r="B294" t="s">
+        <v>59</v>
+      </c>
+      <c r="C294" t="s">
+        <v>42</v>
+      </c>
+      <c r="D294" t="s">
+        <v>5</v>
+      </c>
+      <c r="E294" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5">
+      <c r="A295" t="s">
+        <v>34</v>
+      </c>
+      <c r="B295" t="s">
+        <v>57</v>
+      </c>
+      <c r="C295" t="s">
+        <v>50</v>
+      </c>
+      <c r="D295" t="s">
+        <v>62</v>
+      </c>
+      <c r="E295" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5">
+      <c r="A296" t="s">
+        <v>34</v>
+      </c>
+      <c r="B296" t="s">
+        <v>54</v>
+      </c>
+      <c r="C296" t="s">
+        <v>45</v>
+      </c>
+      <c r="D296" t="s">
+        <v>62</v>
+      </c>
+      <c r="E296" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5">
+      <c r="A297" t="s">
+        <v>34</v>
+      </c>
+      <c r="B297" t="s">
+        <v>44</v>
+      </c>
+      <c r="C297" t="s">
+        <v>43</v>
+      </c>
+      <c r="D297" t="s">
+        <v>5</v>
+      </c>
+      <c r="E297" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5">
+      <c r="A298" t="s">
+        <v>34</v>
+      </c>
+      <c r="B298" t="s">
+        <v>52</v>
+      </c>
+      <c r="C298" t="s">
+        <v>48</v>
+      </c>
+      <c r="D298" t="s">
+        <v>5</v>
+      </c>
+      <c r="E298" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5">
+      <c r="A299" t="s">
+        <v>34</v>
+      </c>
+      <c r="B299" t="s">
+        <v>55</v>
+      </c>
+      <c r="C299" t="s">
+        <v>51</v>
+      </c>
+      <c r="D299" t="s">
+        <v>5</v>
+      </c>
+      <c r="E299" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5">
+      <c r="A300" t="s">
+        <v>34</v>
+      </c>
+      <c r="B300" t="s">
+        <v>60</v>
+      </c>
+      <c r="C300" t="s">
+        <v>53</v>
+      </c>
+      <c r="D300" t="s">
+        <v>7</v>
+      </c>
+      <c r="E300" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5">
+      <c r="A301" t="s">
+        <v>34</v>
+      </c>
+      <c r="B301" t="s">
+        <v>46</v>
+      </c>
+      <c r="C301" t="s">
+        <v>58</v>
+      </c>
+      <c r="D301" t="s">
+        <v>5</v>
+      </c>
+      <c r="E301" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5">
+      <c r="A302" t="s">
+        <v>35</v>
+      </c>
+      <c r="B302" t="s">
+        <v>50</v>
+      </c>
+      <c r="C302" t="s">
+        <v>59</v>
+      </c>
+      <c r="D302" t="s">
+        <v>6</v>
+      </c>
+      <c r="E302" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5">
+      <c r="A303" t="s">
+        <v>35</v>
+      </c>
+      <c r="B303" t="s">
+        <v>48</v>
+      </c>
+      <c r="C303" t="s">
+        <v>55</v>
+      </c>
+      <c r="D303" t="s">
+        <v>7</v>
+      </c>
+      <c r="E303" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5">
+      <c r="A304" t="s">
+        <v>35</v>
+      </c>
+      <c r="B304" t="s">
+        <v>47</v>
+      </c>
+      <c r="C304" t="s">
+        <v>52</v>
+      </c>
+      <c r="D304" t="s">
+        <v>62</v>
+      </c>
+      <c r="E304" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5">
+      <c r="A305" t="s">
+        <v>35</v>
+      </c>
+      <c r="B305" t="s">
+        <v>43</v>
+      </c>
+      <c r="C305" t="s">
+        <v>49</v>
+      </c>
+      <c r="D305" t="s">
+        <v>5</v>
+      </c>
+      <c r="E305" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5">
+      <c r="A306" t="s">
+        <v>35</v>
+      </c>
+      <c r="B306" t="s">
+        <v>56</v>
+      </c>
+      <c r="C306" t="s">
+        <v>54</v>
+      </c>
+      <c r="D306" t="s">
+        <v>62</v>
+      </c>
+      <c r="E306" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5">
+      <c r="A307" t="s">
+        <v>35</v>
+      </c>
+      <c r="B307" t="s">
+        <v>53</v>
+      </c>
+      <c r="C307" t="s">
+        <v>61</v>
+      </c>
+      <c r="D307" t="s">
+        <v>7</v>
+      </c>
+      <c r="E307" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5">
+      <c r="A308" t="s">
+        <v>35</v>
+      </c>
+      <c r="B308" t="s">
+        <v>45</v>
+      </c>
+      <c r="C308" t="s">
+        <v>46</v>
+      </c>
+      <c r="D308" t="s">
+        <v>7</v>
+      </c>
+      <c r="E308" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5">
+      <c r="A309" t="s">
+        <v>35</v>
+      </c>
+      <c r="B309" t="s">
+        <v>42</v>
+      </c>
+      <c r="C309" t="s">
+        <v>44</v>
+      </c>
+      <c r="D309" t="s">
+        <v>6</v>
+      </c>
+      <c r="E309" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5">
+      <c r="A310" t="s">
+        <v>35</v>
+      </c>
+      <c r="B310" t="s">
+        <v>51</v>
+      </c>
+      <c r="C310" t="s">
+        <v>57</v>
+      </c>
+      <c r="D310" t="s">
+        <v>62</v>
+      </c>
+      <c r="E310" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5">
+      <c r="A311" t="s">
+        <v>35</v>
+      </c>
+      <c r="B311" t="s">
+        <v>58</v>
+      </c>
+      <c r="C311" t="s">
+        <v>60</v>
+      </c>
+      <c r="D311" t="s">
+        <v>7</v>
+      </c>
+      <c r="E311" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5">
+      <c r="A312" t="s">
+        <v>36</v>
+      </c>
+      <c r="B312" t="s">
+        <v>44</v>
+      </c>
+      <c r="C312" t="s">
+        <v>53</v>
+      </c>
+      <c r="D312" t="s">
+        <v>5</v>
+      </c>
+      <c r="E312" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5">
+      <c r="A313" t="s">
+        <v>36</v>
+      </c>
+      <c r="B313" t="s">
+        <v>49</v>
+      </c>
+      <c r="C313" t="s">
+        <v>45</v>
+      </c>
+      <c r="D313" t="s">
+        <v>62</v>
+      </c>
+      <c r="E313" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5">
+      <c r="A314" t="s">
+        <v>36</v>
+      </c>
+      <c r="B314" t="s">
+        <v>60</v>
+      </c>
+      <c r="C314" t="s">
+        <v>42</v>
+      </c>
+      <c r="D314" t="s">
+        <v>5</v>
+      </c>
+      <c r="E314" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5">
+      <c r="A315" t="s">
+        <v>36</v>
+      </c>
+      <c r="B315" t="s">
+        <v>52</v>
+      </c>
+      <c r="C315" t="s">
+        <v>58</v>
+      </c>
+      <c r="D315" t="s">
+        <v>5</v>
+      </c>
+      <c r="E315" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5">
+      <c r="A316" t="s">
+        <v>36</v>
+      </c>
+      <c r="B316" t="s">
+        <v>54</v>
+      </c>
+      <c r="C316" t="s">
+        <v>47</v>
+      </c>
+      <c r="D316" t="s">
+        <v>7</v>
+      </c>
+      <c r="E316" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5">
+      <c r="A317" t="s">
+        <v>36</v>
+      </c>
+      <c r="B317" t="s">
+        <v>61</v>
+      </c>
+      <c r="C317" t="s">
+        <v>50</v>
+      </c>
+      <c r="D317" t="s">
+        <v>5</v>
+      </c>
+      <c r="E317" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5">
+      <c r="A318" t="s">
+        <v>36</v>
+      </c>
+      <c r="B318" t="s">
+        <v>57</v>
+      </c>
+      <c r="C318" t="s">
+        <v>48</v>
+      </c>
+      <c r="D318" t="s">
+        <v>5</v>
+      </c>
+      <c r="E318" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5">
+      <c r="A319" t="s">
+        <v>36</v>
+      </c>
+      <c r="B319" t="s">
+        <v>55</v>
+      </c>
+      <c r="C319" t="s">
+        <v>56</v>
+      </c>
+      <c r="D319" t="s">
+        <v>6</v>
+      </c>
+      <c r="E319" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5">
+      <c r="A320" t="s">
+        <v>36</v>
+      </c>
+      <c r="B320" t="s">
+        <v>46</v>
+      </c>
+      <c r="C320" t="s">
+        <v>43</v>
+      </c>
+      <c r="D320" t="s">
+        <v>9</v>
+      </c>
+      <c r="E320" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5">
+      <c r="A321" t="s">
+        <v>36</v>
+      </c>
+      <c r="B321" t="s">
+        <v>59</v>
+      </c>
+      <c r="C321" t="s">
+        <v>51</v>
+      </c>
+      <c r="D321" t="s">
+        <v>5</v>
+      </c>
+      <c r="E321" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5">
+      <c r="A322" t="s">
+        <v>37</v>
+      </c>
+      <c r="B322" t="s">
+        <v>58</v>
+      </c>
+      <c r="C322" t="s">
+        <v>49</v>
+      </c>
+      <c r="D322" t="s">
+        <v>7</v>
+      </c>
+      <c r="E322" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5">
+      <c r="A323" t="s">
+        <v>37</v>
+      </c>
+      <c r="B323" t="s">
+        <v>51</v>
+      </c>
+      <c r="C323" t="s">
+        <v>44</v>
+      </c>
+      <c r="D323" t="s">
+        <v>6</v>
+      </c>
+      <c r="E323" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5">
+      <c r="A324" t="s">
+        <v>37</v>
+      </c>
+      <c r="B324" t="s">
+        <v>43</v>
+      </c>
+      <c r="C324" t="s">
+        <v>52</v>
+      </c>
+      <c r="D324" t="s">
+        <v>62</v>
+      </c>
+      <c r="E324" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5">
+      <c r="A325" t="s">
+        <v>37</v>
+      </c>
+      <c r="B325" t="s">
+        <v>48</v>
+      </c>
+      <c r="C325" t="s">
+        <v>46</v>
+      </c>
+      <c r="D325" t="s">
+        <v>7</v>
+      </c>
+      <c r="E325" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5">
+      <c r="A326" t="s">
+        <v>37</v>
+      </c>
+      <c r="B326" t="s">
+        <v>50</v>
+      </c>
+      <c r="C326" t="s">
+        <v>54</v>
+      </c>
+      <c r="D326" t="s">
+        <v>62</v>
+      </c>
+      <c r="E326" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5">
+      <c r="A327" t="s">
+        <v>37</v>
+      </c>
+      <c r="B327" t="s">
+        <v>47</v>
+      </c>
+      <c r="C327" t="s">
+        <v>55</v>
+      </c>
+      <c r="D327" t="s">
+        <v>6</v>
+      </c>
+      <c r="E327" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5">
+      <c r="A328" t="s">
+        <v>37</v>
+      </c>
+      <c r="B328" t="s">
+        <v>45</v>
+      </c>
+      <c r="C328" t="s">
+        <v>60</v>
+      </c>
+      <c r="D328" t="s">
+        <v>5</v>
+      </c>
+      <c r="E328" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5">
+      <c r="A329" t="s">
+        <v>37</v>
+      </c>
+      <c r="B329" t="s">
+        <v>42</v>
+      </c>
+      <c r="C329" t="s">
+        <v>61</v>
+      </c>
+      <c r="D329" t="s">
+        <v>5</v>
+      </c>
+      <c r="E329" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5">
+      <c r="A330" t="s">
+        <v>37</v>
+      </c>
+      <c r="B330" t="s">
+        <v>56</v>
+      </c>
+      <c r="C330" t="s">
+        <v>59</v>
+      </c>
+      <c r="D330" t="s">
+        <v>7</v>
+      </c>
+      <c r="E330" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5">
+      <c r="A331" t="s">
+        <v>37</v>
+      </c>
+      <c r="B331" t="s">
+        <v>53</v>
+      </c>
+      <c r="C331" t="s">
+        <v>57</v>
+      </c>
+      <c r="D331" t="s">
+        <v>5</v>
+      </c>
+      <c r="E331" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5">
+      <c r="A332" t="s">
+        <v>38</v>
+      </c>
+      <c r="B332" t="s">
+        <v>42</v>
+      </c>
+      <c r="C332" t="s">
+        <v>47</v>
+      </c>
+      <c r="D332" t="s">
+        <v>6</v>
+      </c>
+      <c r="E332" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5">
+      <c r="A333" t="s">
+        <v>38</v>
+      </c>
+      <c r="B333" t="s">
+        <v>60</v>
+      </c>
+      <c r="C333" t="s">
+        <v>54</v>
+      </c>
+      <c r="D333" t="s">
+        <v>62</v>
+      </c>
+      <c r="E333" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5">
+      <c r="A334" t="s">
+        <v>38</v>
+      </c>
+      <c r="B334" t="s">
+        <v>61</v>
+      </c>
+      <c r="C334" t="s">
+        <v>49</v>
+      </c>
+      <c r="D334" t="s">
+        <v>6</v>
+      </c>
+      <c r="E334" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5">
+      <c r="A335" t="s">
+        <v>38</v>
+      </c>
+      <c r="B335" t="s">
+        <v>58</v>
+      </c>
+      <c r="C335" t="s">
+        <v>51</v>
+      </c>
+      <c r="D335" t="s">
+        <v>62</v>
+      </c>
+      <c r="E335" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5">
+      <c r="A336" t="s">
+        <v>38</v>
+      </c>
+      <c r="B336" t="s">
+        <v>52</v>
+      </c>
+      <c r="C336" t="s">
+        <v>45</v>
+      </c>
+      <c r="D336" t="s">
+        <v>5</v>
+      </c>
+      <c r="E336" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5">
+      <c r="A337" t="s">
+        <v>38</v>
+      </c>
+      <c r="B337" t="s">
+        <v>57</v>
+      </c>
+      <c r="C337" t="s">
+        <v>46</v>
+      </c>
+      <c r="D337" t="s">
+        <v>5</v>
+      </c>
+      <c r="E337" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5">
+      <c r="A338" t="s">
+        <v>38</v>
+      </c>
+      <c r="B338" t="s">
+        <v>44</v>
+      </c>
+      <c r="C338" t="s">
+        <v>50</v>
+      </c>
+      <c r="D338" t="s">
+        <v>62</v>
+      </c>
+      <c r="E338" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5">
+      <c r="A339" t="s">
+        <v>38</v>
+      </c>
+      <c r="B339" t="s">
+        <v>56</v>
+      </c>
+      <c r="C339" t="s">
+        <v>48</v>
+      </c>
+      <c r="D339" t="s">
+        <v>6</v>
+      </c>
+      <c r="E339" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5">
+      <c r="A340" t="s">
+        <v>38</v>
+      </c>
+      <c r="B340" t="s">
+        <v>53</v>
+      </c>
+      <c r="C340" t="s">
+        <v>43</v>
+      </c>
+      <c r="D340" t="s">
+        <v>6</v>
+      </c>
+      <c r="E340" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5">
+      <c r="A341" t="s">
+        <v>38</v>
+      </c>
+      <c r="B341" t="s">
+        <v>55</v>
+      </c>
+      <c r="C341" t="s">
+        <v>59</v>
+      </c>
+      <c r="D341" t="s">
+        <v>5</v>
+      </c>
+      <c r="E341" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5">
+      <c r="A342" t="s">
+        <v>39</v>
+      </c>
+      <c r="B342" t="s">
+        <v>47</v>
+      </c>
+      <c r="C342" t="s">
+        <v>44</v>
+      </c>
+      <c r="D342" t="s">
+        <v>6</v>
+      </c>
+      <c r="E342" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5">
+      <c r="A343" t="s">
+        <v>39</v>
+      </c>
+      <c r="B343" t="s">
+        <v>48</v>
+      </c>
+      <c r="C343" t="s">
+        <v>58</v>
+      </c>
+      <c r="D343" t="s">
+        <v>5</v>
+      </c>
+      <c r="E343" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5">
+      <c r="A344" t="s">
+        <v>39</v>
+      </c>
+      <c r="B344" t="s">
+        <v>49</v>
+      </c>
+      <c r="C344" t="s">
+        <v>42</v>
+      </c>
+      <c r="D344" t="s">
+        <v>6</v>
+      </c>
+      <c r="E344" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5">
+      <c r="A345" t="s">
+        <v>39</v>
+      </c>
+      <c r="B345" t="s">
+        <v>54</v>
+      </c>
+      <c r="C345" t="s">
+        <v>55</v>
+      </c>
+      <c r="D345" t="s">
+        <v>8</v>
+      </c>
+      <c r="E345" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5">
+      <c r="A346" t="s">
+        <v>39</v>
+      </c>
+      <c r="B346" t="s">
+        <v>50</v>
+      </c>
+      <c r="C346" t="s">
+        <v>52</v>
+      </c>
+      <c r="D346" t="s">
+        <v>62</v>
+      </c>
+      <c r="E346" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5">
+      <c r="A347" t="s">
+        <v>39</v>
+      </c>
+      <c r="B347" t="s">
+        <v>46</v>
+      </c>
+      <c r="C347" t="s">
+        <v>53</v>
+      </c>
+      <c r="D347" t="s">
+        <v>6</v>
+      </c>
+      <c r="E347" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5">
+      <c r="A348" t="s">
+        <v>39</v>
+      </c>
+      <c r="B348" t="s">
+        <v>45</v>
+      </c>
+      <c r="C348" t="s">
+        <v>57</v>
+      </c>
+      <c r="D348" t="s">
+        <v>6</v>
+      </c>
+      <c r="E348" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5">
+      <c r="A349" t="s">
+        <v>39</v>
+      </c>
+      <c r="B349" t="s">
+        <v>59</v>
+      </c>
+      <c r="C349" t="s">
+        <v>60</v>
+      </c>
+      <c r="D349" t="s">
+        <v>62</v>
+      </c>
+      <c r="E349" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5">
+      <c r="A350" t="s">
+        <v>39</v>
+      </c>
+      <c r="B350" t="s">
+        <v>51</v>
+      </c>
+      <c r="C350" t="s">
+        <v>61</v>
+      </c>
+      <c r="D350" t="s">
+        <v>6</v>
+      </c>
+      <c r="E350" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5">
+      <c r="A351" t="s">
+        <v>39</v>
+      </c>
+      <c r="B351" t="s">
+        <v>43</v>
+      </c>
+      <c r="C351" t="s">
+        <v>56</v>
+      </c>
+      <c r="D351" t="s">
+        <v>5</v>
+      </c>
+      <c r="E351" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5">
+      <c r="A352" t="s">
+        <v>40</v>
+      </c>
+      <c r="B352" t="s">
+        <v>55</v>
+      </c>
+      <c r="C352" t="s">
+        <v>45</v>
+      </c>
+      <c r="D352" t="s">
+        <v>5</v>
+      </c>
+      <c r="E352" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5">
+      <c r="A353" t="s">
+        <v>40</v>
+      </c>
+      <c r="B353" t="s">
+        <v>61</v>
+      </c>
+      <c r="C353" t="s">
+        <v>59</v>
+      </c>
+      <c r="D353" t="s">
+        <v>5</v>
+      </c>
+      <c r="E353" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5">
+      <c r="A354" t="s">
+        <v>40</v>
+      </c>
+      <c r="B354" t="s">
+        <v>58</v>
+      </c>
+      <c r="C354" t="s">
+        <v>50</v>
+      </c>
+      <c r="D354" t="s">
+        <v>7</v>
+      </c>
+      <c r="E354" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5">
+      <c r="A355" t="s">
+        <v>40</v>
+      </c>
+      <c r="B355" t="s">
+        <v>42</v>
+      </c>
+      <c r="C355" t="s">
+        <v>43</v>
+      </c>
+      <c r="D355" t="s">
+        <v>9</v>
+      </c>
+      <c r="E355" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5">
+      <c r="A356" t="s">
+        <v>40</v>
+      </c>
+      <c r="B356" t="s">
+        <v>44</v>
+      </c>
+      <c r="C356" t="s">
+        <v>49</v>
+      </c>
+      <c r="D356" t="s">
+        <v>62</v>
+      </c>
+      <c r="E356" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5">
+      <c r="A357" t="s">
+        <v>40</v>
+      </c>
+      <c r="B357" t="s">
+        <v>52</v>
+      </c>
+      <c r="C357" t="s">
+        <v>46</v>
+      </c>
+      <c r="D357" t="s">
+        <v>5</v>
+      </c>
+      <c r="E357" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5">
+      <c r="A358" t="s">
+        <v>40</v>
+      </c>
+      <c r="B358" t="s">
+        <v>57</v>
+      </c>
+      <c r="C358" t="s">
+        <v>54</v>
+      </c>
+      <c r="D358" t="s">
+        <v>7</v>
+      </c>
+      <c r="E358" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5">
+      <c r="A359" t="s">
+        <v>40</v>
+      </c>
+      <c r="B359" t="s">
+        <v>53</v>
+      </c>
+      <c r="C359" t="s">
+        <v>47</v>
+      </c>
+      <c r="D359" t="s">
+        <v>62</v>
+      </c>
+      <c r="E359" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5">
+      <c r="A360" t="s">
+        <v>40</v>
+      </c>
+      <c r="B360" t="s">
+        <v>60</v>
+      </c>
+      <c r="C360" t="s">
+        <v>48</v>
+      </c>
+      <c r="D360" t="s">
+        <v>6</v>
+      </c>
+      <c r="E360" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5">
+      <c r="A361" t="s">
+        <v>40</v>
+      </c>
+      <c r="B361" t="s">
+        <v>56</v>
+      </c>
+      <c r="C361" t="s">
+        <v>51</v>
+      </c>
+      <c r="D361" t="s">
+        <v>8</v>
+      </c>
+      <c r="E361" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5">
+      <c r="A362" t="s">
+        <v>41</v>
+      </c>
+      <c r="B362" t="s">
+        <v>43</v>
+      </c>
+      <c r="C362" t="s">
+        <v>55</v>
+      </c>
+      <c r="D362" t="s">
+        <v>6</v>
+      </c>
+      <c r="E362" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5">
+      <c r="A363" t="s">
+        <v>41</v>
+      </c>
+      <c r="B363" t="s">
+        <v>48</v>
+      </c>
+      <c r="C363" t="s">
+        <v>53</v>
+      </c>
+      <c r="D363" t="s">
+        <v>7</v>
+      </c>
+      <c r="E363" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5">
+      <c r="A364" t="s">
+        <v>41</v>
+      </c>
+      <c r="B364" t="s">
+        <v>49</v>
+      </c>
+      <c r="C364" t="s">
+        <v>52</v>
+      </c>
+      <c r="D364" t="s">
+        <v>62</v>
+      </c>
+      <c r="E364" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5">
+      <c r="A365" t="s">
+        <v>41</v>
+      </c>
+      <c r="B365" t="s">
+        <v>46</v>
+      </c>
+      <c r="C365" t="s">
+        <v>60</v>
+      </c>
+      <c r="D365" t="s">
+        <v>6</v>
+      </c>
+      <c r="E365" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5">
+      <c r="A366" t="s">
+        <v>41</v>
+      </c>
+      <c r="B366" t="s">
+        <v>54</v>
+      </c>
+      <c r="C366" t="s">
+        <v>58</v>
+      </c>
+      <c r="D366" t="s">
+        <v>7</v>
+      </c>
+      <c r="E366" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5">
+      <c r="A367" t="s">
+        <v>41</v>
+      </c>
+      <c r="B367" t="s">
+        <v>50</v>
+      </c>
+      <c r="C367" t="s">
+        <v>56</v>
+      </c>
+      <c r="D367" t="s">
+        <v>5</v>
+      </c>
+      <c r="E367" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5">
+      <c r="A368" t="s">
+        <v>41</v>
+      </c>
+      <c r="B368" t="s">
+        <v>59</v>
+      </c>
+      <c r="C368" t="s">
+        <v>57</v>
+      </c>
+      <c r="D368" t="s">
+        <v>6</v>
+      </c>
+      <c r="E368" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5">
+      <c r="A369" t="s">
+        <v>41</v>
+      </c>
+      <c r="B369" t="s">
+        <v>45</v>
+      </c>
+      <c r="C369" t="s">
+        <v>44</v>
+      </c>
+      <c r="D369" t="s">
+        <v>62</v>
+      </c>
+      <c r="E369" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5">
+      <c r="A370" t="s">
+        <v>41</v>
+      </c>
+      <c r="B370" t="s">
+        <v>47</v>
+      </c>
+      <c r="C370" t="s">
+        <v>61</v>
+      </c>
+      <c r="D370" t="s">
+        <v>7</v>
+      </c>
+      <c r="E370" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5">
+      <c r="A371" t="s">
+        <v>41</v>
+      </c>
+      <c r="B371" t="s">
+        <v>51</v>
+      </c>
+      <c r="C371" t="s">
+        <v>42</v>
+      </c>
+      <c r="D371" t="s">
+        <v>62</v>
+      </c>
+      <c r="E371" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/season/season-2223_csv.xlsx
+++ b/season/season-2223_csv.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1855" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1910" uniqueCount="65">
   <si>
     <t>Giornata</t>
   </si>
@@ -140,6 +140,12 @@
   </si>
   <si>
     <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
   </si>
   <si>
     <t>Milan</t>
@@ -560,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E371"/>
+  <dimension ref="A1:E382"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -588,10 +594,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -605,13 +611,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -622,10 +628,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -639,10 +645,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
@@ -656,10 +662,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -673,10 +679,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
@@ -690,13 +696,13 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E8" t="s">
         <v>5</v>
@@ -707,16 +713,16 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -724,10 +730,10 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
@@ -741,16 +747,16 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -758,16 +764,16 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -775,16 +781,16 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -792,16 +798,16 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -809,16 +815,16 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D15" t="s">
         <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -826,16 +832,16 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -843,16 +849,16 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
         <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -860,10 +866,10 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
         <v>5</v>
@@ -877,10 +883,10 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D19" t="s">
         <v>5</v>
@@ -894,16 +900,16 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D20" t="s">
         <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -911,16 +917,16 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -928,10 +934,10 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D22" t="s">
         <v>5</v>
@@ -945,10 +951,10 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
@@ -962,10 +968,10 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D24" t="s">
         <v>5</v>
@@ -979,10 +985,10 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D25" t="s">
         <v>5</v>
@@ -996,16 +1002,16 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D26" t="s">
         <v>6</v>
       </c>
       <c r="E26" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1013,10 +1019,10 @@
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D27" t="s">
         <v>6</v>
@@ -1030,13 +1036,13 @@
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C28" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D28" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E28" t="s">
         <v>5</v>
@@ -1047,16 +1053,16 @@
         <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C29" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D29" t="s">
         <v>8</v>
       </c>
       <c r="E29" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1064,16 +1070,16 @@
         <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C30" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D30" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E30" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1081,10 +1087,10 @@
         <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C31" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D31" t="s">
         <v>5</v>
@@ -1098,16 +1104,16 @@
         <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C32" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D32" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E32" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1115,10 +1121,10 @@
         <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C33" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D33" t="s">
         <v>7</v>
@@ -1132,16 +1138,16 @@
         <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C34" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D34" t="s">
         <v>7</v>
       </c>
       <c r="E34" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1149,10 +1155,10 @@
         <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C35" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D35" t="s">
         <v>5</v>
@@ -1166,10 +1172,10 @@
         <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C36" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D36" t="s">
         <v>5</v>
@@ -1183,16 +1189,16 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C37" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D37" t="s">
         <v>5</v>
       </c>
       <c r="E37" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1200,16 +1206,16 @@
         <v>8</v>
       </c>
       <c r="B38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" t="s">
         <v>51</v>
       </c>
-      <c r="C38" t="s">
-        <v>49</v>
-      </c>
       <c r="D38" t="s">
         <v>6</v>
       </c>
       <c r="E38" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1217,10 +1223,10 @@
         <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C39" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D39" t="s">
         <v>5</v>
@@ -1234,10 +1240,10 @@
         <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C40" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D40" t="s">
         <v>7</v>
@@ -1251,10 +1257,10 @@
         <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C41" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D41" t="s">
         <v>5</v>
@@ -1268,10 +1274,10 @@
         <v>9</v>
       </c>
       <c r="B42" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C42" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D42" t="s">
         <v>5</v>
@@ -1285,10 +1291,10 @@
         <v>9</v>
       </c>
       <c r="B43" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D43" t="s">
         <v>7</v>
@@ -1302,10 +1308,10 @@
         <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C44" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D44" t="s">
         <v>5</v>
@@ -1319,16 +1325,16 @@
         <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C45" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D45" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E45" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1336,10 +1342,10 @@
         <v>9</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C46" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D46" t="s">
         <v>6</v>
@@ -1353,10 +1359,10 @@
         <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C47" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D47" t="s">
         <v>6</v>
@@ -1370,16 +1376,16 @@
         <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D48" t="s">
         <v>8</v>
       </c>
       <c r="E48" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1387,13 +1393,13 @@
         <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C49" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D49" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E49" t="s">
         <v>6</v>
@@ -1404,10 +1410,10 @@
         <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C50" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D50" t="s">
         <v>6</v>
@@ -1421,16 +1427,16 @@
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D51" t="s">
         <v>5</v>
       </c>
       <c r="E51" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1438,16 +1444,16 @@
         <v>10</v>
       </c>
       <c r="B52" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C52" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D52" t="s">
         <v>5</v>
       </c>
       <c r="E52" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1455,16 +1461,16 @@
         <v>10</v>
       </c>
       <c r="B53" t="s">
+        <v>56</v>
+      </c>
+      <c r="C53" t="s">
         <v>54</v>
       </c>
-      <c r="C53" t="s">
-        <v>52</v>
-      </c>
       <c r="D53" t="s">
         <v>5</v>
       </c>
       <c r="E53" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1472,10 +1478,10 @@
         <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C54" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D54" t="s">
         <v>5</v>
@@ -1489,10 +1495,10 @@
         <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C55" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D55" t="s">
         <v>5</v>
@@ -1506,10 +1512,10 @@
         <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C56" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D56" t="s">
         <v>6</v>
@@ -1523,10 +1529,10 @@
         <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C57" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D57" t="s">
         <v>5</v>
@@ -1540,10 +1546,10 @@
         <v>10</v>
       </c>
       <c r="B58" t="s">
+        <v>57</v>
+      </c>
+      <c r="C58" t="s">
         <v>55</v>
-      </c>
-      <c r="C58" t="s">
-        <v>53</v>
       </c>
       <c r="D58" t="s">
         <v>5</v>
@@ -1557,16 +1563,16 @@
         <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C59" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D59" t="s">
         <v>6</v>
       </c>
       <c r="E59" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1574,10 +1580,10 @@
         <v>10</v>
       </c>
       <c r="B60" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C60" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D60" t="s">
         <v>6</v>
@@ -1591,10 +1597,10 @@
         <v>10</v>
       </c>
       <c r="B61" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C61" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D61" t="s">
         <v>5</v>
@@ -1608,10 +1614,10 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C62" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D62" t="s">
         <v>5</v>
@@ -1625,13 +1631,13 @@
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C63" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D63" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E63" t="s">
         <v>5</v>
@@ -1642,10 +1648,10 @@
         <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C64" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D64" t="s">
         <v>6</v>
@@ -1659,13 +1665,13 @@
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C65" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D65" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E65" t="s">
         <v>5</v>
@@ -1676,10 +1682,10 @@
         <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C66" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D66" t="s">
         <v>7</v>
@@ -1693,13 +1699,13 @@
         <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C67" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D67" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E67" t="s">
         <v>8</v>
@@ -1710,16 +1716,16 @@
         <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C68" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D68" t="s">
         <v>6</v>
       </c>
       <c r="E68" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1727,16 +1733,16 @@
         <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C69" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D69" t="s">
         <v>5</v>
       </c>
       <c r="E69" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1744,13 +1750,13 @@
         <v>11</v>
       </c>
       <c r="B70" t="s">
+        <v>62</v>
+      </c>
+      <c r="C70" t="s">
         <v>60</v>
       </c>
-      <c r="C70" t="s">
-        <v>58</v>
-      </c>
       <c r="D70" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E70" t="s">
         <v>5</v>
@@ -1761,10 +1767,10 @@
         <v>11</v>
       </c>
       <c r="B71" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C71" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D71" t="s">
         <v>5</v>
@@ -1778,10 +1784,10 @@
         <v>12</v>
       </c>
       <c r="B72" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C72" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D72" t="s">
         <v>7</v>
@@ -1795,10 +1801,10 @@
         <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C73" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D73" t="s">
         <v>5</v>
@@ -1812,10 +1818,10 @@
         <v>12</v>
       </c>
       <c r="B74" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C74" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D74" t="s">
         <v>5</v>
@@ -1829,16 +1835,16 @@
         <v>12</v>
       </c>
       <c r="B75" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C75" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D75" t="s">
         <v>8</v>
       </c>
       <c r="E75" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1846,10 +1852,10 @@
         <v>12</v>
       </c>
       <c r="B76" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C76" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D76" t="s">
         <v>5</v>
@@ -1863,13 +1869,13 @@
         <v>12</v>
       </c>
       <c r="B77" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C77" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D77" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E77" t="s">
         <v>7</v>
@@ -1880,16 +1886,16 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C78" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D78" t="s">
         <v>9</v>
       </c>
       <c r="E78" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1897,16 +1903,16 @@
         <v>12</v>
       </c>
       <c r="B79" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C79" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D79" t="s">
         <v>5</v>
       </c>
       <c r="E79" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1914,16 +1920,16 @@
         <v>12</v>
       </c>
       <c r="B80" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C80" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D80" t="s">
         <v>7</v>
       </c>
       <c r="E80" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1931,10 +1937,10 @@
         <v>12</v>
       </c>
       <c r="B81" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C81" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D81" t="s">
         <v>5</v>
@@ -1948,10 +1954,10 @@
         <v>13</v>
       </c>
       <c r="B82" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C82" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D82" t="s">
         <v>5</v>
@@ -1965,16 +1971,16 @@
         <v>13</v>
       </c>
       <c r="B83" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C83" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D83" t="s">
         <v>6</v>
       </c>
       <c r="E83" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1982,10 +1988,10 @@
         <v>13</v>
       </c>
       <c r="B84" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C84" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D84" t="s">
         <v>5</v>
@@ -1999,10 +2005,10 @@
         <v>13</v>
       </c>
       <c r="B85" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C85" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D85" t="s">
         <v>5</v>
@@ -2016,16 +2022,16 @@
         <v>13</v>
       </c>
       <c r="B86" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C86" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D86" t="s">
         <v>6</v>
       </c>
       <c r="E86" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2033,10 +2039,10 @@
         <v>13</v>
       </c>
       <c r="B87" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C87" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D87" t="s">
         <v>6</v>
@@ -2050,10 +2056,10 @@
         <v>13</v>
       </c>
       <c r="B88" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C88" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D88" t="s">
         <v>6</v>
@@ -2067,10 +2073,10 @@
         <v>13</v>
       </c>
       <c r="B89" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C89" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D89" t="s">
         <v>5</v>
@@ -2084,10 +2090,10 @@
         <v>13</v>
       </c>
       <c r="B90" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C90" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D90" t="s">
         <v>6</v>
@@ -2101,13 +2107,13 @@
         <v>13</v>
       </c>
       <c r="B91" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C91" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D91" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E91" t="s">
         <v>8</v>
@@ -2118,16 +2124,16 @@
         <v>14</v>
       </c>
       <c r="B92" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C92" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D92" t="s">
         <v>5</v>
       </c>
       <c r="E92" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2135,13 +2141,13 @@
         <v>14</v>
       </c>
       <c r="B93" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C93" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D93" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E93" t="s">
         <v>5</v>
@@ -2152,10 +2158,10 @@
         <v>14</v>
       </c>
       <c r="B94" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C94" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D94" t="s">
         <v>6</v>
@@ -2169,16 +2175,16 @@
         <v>14</v>
       </c>
       <c r="B95" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C95" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D95" t="s">
         <v>6</v>
       </c>
       <c r="E95" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2186,16 +2192,16 @@
         <v>14</v>
       </c>
       <c r="B96" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C96" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D96" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E96" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2203,10 +2209,10 @@
         <v>14</v>
       </c>
       <c r="B97" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C97" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D97" t="s">
         <v>6</v>
@@ -2220,10 +2226,10 @@
         <v>14</v>
       </c>
       <c r="B98" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C98" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D98" t="s">
         <v>7</v>
@@ -2237,10 +2243,10 @@
         <v>14</v>
       </c>
       <c r="B99" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C99" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D99" t="s">
         <v>5</v>
@@ -2254,13 +2260,13 @@
         <v>14</v>
       </c>
       <c r="B100" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C100" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D100" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E100" t="s">
         <v>5</v>
@@ -2271,10 +2277,10 @@
         <v>14</v>
       </c>
       <c r="B101" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C101" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D101" t="s">
         <v>5</v>
@@ -2288,16 +2294,16 @@
         <v>15</v>
       </c>
       <c r="B102" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C102" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D102" t="s">
         <v>8</v>
       </c>
       <c r="E102" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2305,16 +2311,16 @@
         <v>15</v>
       </c>
       <c r="B103" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C103" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D103" t="s">
         <v>5</v>
       </c>
       <c r="E103" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2322,10 +2328,10 @@
         <v>15</v>
       </c>
       <c r="B104" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C104" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D104" t="s">
         <v>8</v>
@@ -2339,10 +2345,10 @@
         <v>15</v>
       </c>
       <c r="B105" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C105" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D105" t="s">
         <v>7</v>
@@ -2356,10 +2362,10 @@
         <v>15</v>
       </c>
       <c r="B106" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C106" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D106" t="s">
         <v>5</v>
@@ -2373,16 +2379,16 @@
         <v>15</v>
       </c>
       <c r="B107" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C107" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D107" t="s">
         <v>6</v>
       </c>
       <c r="E107" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2390,13 +2396,13 @@
         <v>15</v>
       </c>
       <c r="B108" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C108" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D108" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E108" t="s">
         <v>6</v>
@@ -2407,13 +2413,13 @@
         <v>15</v>
       </c>
       <c r="B109" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C109" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D109" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E109" t="s">
         <v>5</v>
@@ -2424,13 +2430,13 @@
         <v>15</v>
       </c>
       <c r="B110" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C110" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D110" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E110" t="s">
         <v>5</v>
@@ -2441,10 +2447,10 @@
         <v>15</v>
       </c>
       <c r="B111" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C111" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D111" t="s">
         <v>6</v>
@@ -2458,16 +2464,16 @@
         <v>16</v>
       </c>
       <c r="B112" t="s">
+        <v>59</v>
+      </c>
+      <c r="C112" t="s">
         <v>57</v>
-      </c>
-      <c r="C112" t="s">
-        <v>55</v>
       </c>
       <c r="D112" t="s">
         <v>8</v>
       </c>
       <c r="E112" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2475,13 +2481,13 @@
         <v>16</v>
       </c>
       <c r="B113" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C113" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D113" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E113" t="s">
         <v>5</v>
@@ -2492,16 +2498,16 @@
         <v>16</v>
       </c>
       <c r="B114" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C114" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D114" t="s">
         <v>7</v>
       </c>
       <c r="E114" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2509,13 +2515,13 @@
         <v>16</v>
       </c>
       <c r="B115" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C115" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D115" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E115" t="s">
         <v>6</v>
@@ -2526,16 +2532,16 @@
         <v>16</v>
       </c>
       <c r="B116" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C116" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D116" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E116" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2543,10 +2549,10 @@
         <v>16</v>
       </c>
       <c r="B117" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C117" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D117" t="s">
         <v>5</v>
@@ -2560,10 +2566,10 @@
         <v>16</v>
       </c>
       <c r="B118" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C118" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D118" t="s">
         <v>5</v>
@@ -2577,10 +2583,10 @@
         <v>16</v>
       </c>
       <c r="B119" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C119" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D119" t="s">
         <v>6</v>
@@ -2594,10 +2600,10 @@
         <v>16</v>
       </c>
       <c r="B120" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C120" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D120" t="s">
         <v>5</v>
@@ -2611,10 +2617,10 @@
         <v>16</v>
       </c>
       <c r="B121" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C121" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D121" t="s">
         <v>5</v>
@@ -2628,10 +2634,10 @@
         <v>17</v>
       </c>
       <c r="B122" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C122" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D122" t="s">
         <v>5</v>
@@ -2645,16 +2651,16 @@
         <v>17</v>
       </c>
       <c r="B123" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C123" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D123" t="s">
         <v>5</v>
       </c>
       <c r="E123" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2662,10 +2668,10 @@
         <v>17</v>
       </c>
       <c r="B124" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C124" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D124" t="s">
         <v>6</v>
@@ -2679,10 +2685,10 @@
         <v>17</v>
       </c>
       <c r="B125" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C125" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D125" t="s">
         <v>5</v>
@@ -2696,10 +2702,10 @@
         <v>17</v>
       </c>
       <c r="B126" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C126" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D126" t="s">
         <v>6</v>
@@ -2713,10 +2719,10 @@
         <v>17</v>
       </c>
       <c r="B127" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C127" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D127" t="s">
         <v>6</v>
@@ -2730,13 +2736,13 @@
         <v>17</v>
       </c>
       <c r="B128" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C128" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D128" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E128" t="s">
         <v>6</v>
@@ -2747,16 +2753,16 @@
         <v>17</v>
       </c>
       <c r="B129" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C129" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D129" t="s">
         <v>6</v>
       </c>
       <c r="E129" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2764,13 +2770,13 @@
         <v>17</v>
       </c>
       <c r="B130" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C130" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D130" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E130" t="s">
         <v>5</v>
@@ -2781,16 +2787,16 @@
         <v>17</v>
       </c>
       <c r="B131" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C131" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D131" t="s">
         <v>6</v>
       </c>
       <c r="E131" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2798,16 +2804,16 @@
         <v>18</v>
       </c>
       <c r="B132" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C132" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D132" t="s">
         <v>6</v>
       </c>
       <c r="E132" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2815,10 +2821,10 @@
         <v>18</v>
       </c>
       <c r="B133" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C133" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D133" t="s">
         <v>5</v>
@@ -2832,16 +2838,16 @@
         <v>18</v>
       </c>
       <c r="B134" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C134" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D134" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E134" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2849,10 +2855,10 @@
         <v>18</v>
       </c>
       <c r="B135" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C135" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D135" t="s">
         <v>6</v>
@@ -2866,10 +2872,10 @@
         <v>18</v>
       </c>
       <c r="B136" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C136" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D136" t="s">
         <v>5</v>
@@ -2883,10 +2889,10 @@
         <v>18</v>
       </c>
       <c r="B137" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C137" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D137" t="s">
         <v>6</v>
@@ -2900,10 +2906,10 @@
         <v>18</v>
       </c>
       <c r="B138" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C138" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D138" t="s">
         <v>10</v>
@@ -2917,16 +2923,16 @@
         <v>18</v>
       </c>
       <c r="B139" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C139" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D139" t="s">
         <v>6</v>
       </c>
       <c r="E139" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2934,13 +2940,13 @@
         <v>18</v>
       </c>
       <c r="B140" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C140" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D140" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E140" t="s">
         <v>5</v>
@@ -2951,16 +2957,16 @@
         <v>18</v>
       </c>
       <c r="B141" t="s">
+        <v>49</v>
+      </c>
+      <c r="C141" t="s">
         <v>47</v>
       </c>
-      <c r="C141" t="s">
-        <v>45</v>
-      </c>
       <c r="D141" t="s">
         <v>5</v>
       </c>
       <c r="E141" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2968,16 +2974,16 @@
         <v>19</v>
       </c>
       <c r="B142" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C142" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D142" t="s">
         <v>6</v>
       </c>
       <c r="E142" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -2985,10 +2991,10 @@
         <v>19</v>
       </c>
       <c r="B143" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C143" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D143" t="s">
         <v>7</v>
@@ -3002,13 +3008,13 @@
         <v>19</v>
       </c>
       <c r="B144" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C144" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D144" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E144" t="s">
         <v>6</v>
@@ -3019,16 +3025,16 @@
         <v>19</v>
       </c>
       <c r="B145" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C145" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D145" t="s">
         <v>7</v>
       </c>
       <c r="E145" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -3036,10 +3042,10 @@
         <v>19</v>
       </c>
       <c r="B146" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C146" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D146" t="s">
         <v>6</v>
@@ -3053,10 +3059,10 @@
         <v>19</v>
       </c>
       <c r="B147" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C147" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D147" t="s">
         <v>5</v>
@@ -3070,16 +3076,16 @@
         <v>19</v>
       </c>
       <c r="B148" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C148" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D148" t="s">
         <v>7</v>
       </c>
       <c r="E148" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -3087,10 +3093,10 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C149" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D149" t="s">
         <v>5</v>
@@ -3104,10 +3110,10 @@
         <v>19</v>
       </c>
       <c r="B150" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C150" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D150" t="s">
         <v>6</v>
@@ -3121,16 +3127,16 @@
         <v>19</v>
       </c>
       <c r="B151" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C151" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D151" t="s">
         <v>7</v>
       </c>
       <c r="E151" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3138,10 +3144,10 @@
         <v>20</v>
       </c>
       <c r="B152" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C152" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D152" t="s">
         <v>5</v>
@@ -3155,10 +3161,10 @@
         <v>20</v>
       </c>
       <c r="B153" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C153" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D153" t="s">
         <v>5</v>
@@ -3172,10 +3178,10 @@
         <v>20</v>
       </c>
       <c r="B154" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C154" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D154" t="s">
         <v>6</v>
@@ -3189,10 +3195,10 @@
         <v>20</v>
       </c>
       <c r="B155" t="s">
+        <v>54</v>
+      </c>
+      <c r="C155" t="s">
         <v>52</v>
-      </c>
-      <c r="C155" t="s">
-        <v>50</v>
       </c>
       <c r="D155" t="s">
         <v>5</v>
@@ -3206,16 +3212,16 @@
         <v>20</v>
       </c>
       <c r="B156" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C156" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D156" t="s">
         <v>5</v>
       </c>
       <c r="E156" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3223,10 +3229,10 @@
         <v>20</v>
       </c>
       <c r="B157" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C157" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D157" t="s">
         <v>6</v>
@@ -3240,13 +3246,13 @@
         <v>20</v>
       </c>
       <c r="B158" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C158" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D158" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E158" t="s">
         <v>5</v>
@@ -3257,10 +3263,10 @@
         <v>20</v>
       </c>
       <c r="B159" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C159" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D159" t="s">
         <v>5</v>
@@ -3274,16 +3280,16 @@
         <v>20</v>
       </c>
       <c r="B160" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C160" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D160" t="s">
         <v>5</v>
       </c>
       <c r="E160" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3291,10 +3297,10 @@
         <v>20</v>
       </c>
       <c r="B161" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C161" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D161" t="s">
         <v>5</v>
@@ -3308,10 +3314,10 @@
         <v>21</v>
       </c>
       <c r="B162" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C162" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D162" t="s">
         <v>6</v>
@@ -3325,16 +3331,16 @@
         <v>21</v>
       </c>
       <c r="B163" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C163" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D163" t="s">
         <v>5</v>
       </c>
       <c r="E163" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3342,10 +3348,10 @@
         <v>21</v>
       </c>
       <c r="B164" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C164" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D164" t="s">
         <v>6</v>
@@ -3359,10 +3365,10 @@
         <v>21</v>
       </c>
       <c r="B165" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C165" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D165" t="s">
         <v>5</v>
@@ -3376,10 +3382,10 @@
         <v>21</v>
       </c>
       <c r="B166" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C166" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D166" t="s">
         <v>6</v>
@@ -3393,16 +3399,16 @@
         <v>21</v>
       </c>
       <c r="B167" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C167" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D167" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E167" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3410,13 +3416,13 @@
         <v>21</v>
       </c>
       <c r="B168" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C168" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D168" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E168" t="s">
         <v>6</v>
@@ -3427,10 +3433,10 @@
         <v>21</v>
       </c>
       <c r="B169" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C169" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D169" t="s">
         <v>6</v>
@@ -3444,16 +3450,16 @@
         <v>21</v>
       </c>
       <c r="B170" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C170" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D170" t="s">
         <v>6</v>
       </c>
       <c r="E170" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3461,10 +3467,10 @@
         <v>21</v>
       </c>
       <c r="B171" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C171" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D171" t="s">
         <v>5</v>
@@ -3478,10 +3484,10 @@
         <v>22</v>
       </c>
       <c r="B172" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C172" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D172" t="s">
         <v>9</v>
@@ -3495,10 +3501,10 @@
         <v>22</v>
       </c>
       <c r="B173" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C173" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D173" t="s">
         <v>6</v>
@@ -3512,10 +3518,10 @@
         <v>22</v>
       </c>
       <c r="B174" t="s">
+        <v>46</v>
+      </c>
+      <c r="C174" t="s">
         <v>44</v>
-      </c>
-      <c r="C174" t="s">
-        <v>42</v>
       </c>
       <c r="D174" t="s">
         <v>6</v>
@@ -3529,16 +3535,16 @@
         <v>22</v>
       </c>
       <c r="B175" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C175" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D175" t="s">
         <v>5</v>
       </c>
       <c r="E175" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3546,13 +3552,13 @@
         <v>22</v>
       </c>
       <c r="B176" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C176" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D176" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E176" t="s">
         <v>6</v>
@@ -3563,13 +3569,13 @@
         <v>22</v>
       </c>
       <c r="B177" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C177" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D177" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E177" t="s">
         <v>5</v>
@@ -3580,10 +3586,10 @@
         <v>22</v>
       </c>
       <c r="B178" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C178" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D178" t="s">
         <v>5</v>
@@ -3597,10 +3603,10 @@
         <v>22</v>
       </c>
       <c r="B179" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C179" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D179" t="s">
         <v>12</v>
@@ -3614,16 +3620,16 @@
         <v>22</v>
       </c>
       <c r="B180" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C180" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D180" t="s">
         <v>6</v>
       </c>
       <c r="E180" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3631,16 +3637,16 @@
         <v>22</v>
       </c>
       <c r="B181" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C181" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D181" t="s">
         <v>5</v>
       </c>
       <c r="E181" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3648,16 +3654,16 @@
         <v>23</v>
       </c>
       <c r="B182" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C182" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D182" t="s">
         <v>6</v>
       </c>
       <c r="E182" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3665,13 +3671,13 @@
         <v>23</v>
       </c>
       <c r="B183" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C183" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D183" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E183" t="s">
         <v>6</v>
@@ -3682,13 +3688,13 @@
         <v>23</v>
       </c>
       <c r="B184" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C184" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D184" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E184" t="s">
         <v>5</v>
@@ -3699,13 +3705,13 @@
         <v>23</v>
       </c>
       <c r="B185" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C185" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D185" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E185" t="s">
         <v>5</v>
@@ -3716,10 +3722,10 @@
         <v>23</v>
       </c>
       <c r="B186" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C186" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D186" t="s">
         <v>5</v>
@@ -3733,13 +3739,13 @@
         <v>23</v>
       </c>
       <c r="B187" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C187" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D187" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E187" t="s">
         <v>6</v>
@@ -3750,10 +3756,10 @@
         <v>23</v>
       </c>
       <c r="B188" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C188" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D188" t="s">
         <v>7</v>
@@ -3767,10 +3773,10 @@
         <v>23</v>
       </c>
       <c r="B189" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C189" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D189" t="s">
         <v>5</v>
@@ -3784,13 +3790,13 @@
         <v>23</v>
       </c>
       <c r="B190" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C190" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D190" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E190" t="s">
         <v>5</v>
@@ -3801,16 +3807,16 @@
         <v>23</v>
       </c>
       <c r="B191" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C191" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D191" t="s">
         <v>8</v>
       </c>
       <c r="E191" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -3818,16 +3824,16 @@
         <v>24</v>
       </c>
       <c r="B192" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C192" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D192" t="s">
         <v>6</v>
       </c>
       <c r="E192" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -3835,10 +3841,10 @@
         <v>24</v>
       </c>
       <c r="B193" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C193" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D193" t="s">
         <v>5</v>
@@ -3852,10 +3858,10 @@
         <v>24</v>
       </c>
       <c r="B194" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C194" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D194" t="s">
         <v>6</v>
@@ -3869,10 +3875,10 @@
         <v>24</v>
       </c>
       <c r="B195" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C195" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D195" t="s">
         <v>5</v>
@@ -3886,16 +3892,16 @@
         <v>24</v>
       </c>
       <c r="B196" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C196" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D196" t="s">
         <v>6</v>
       </c>
       <c r="E196" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -3903,10 +3909,10 @@
         <v>24</v>
       </c>
       <c r="B197" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C197" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D197" t="s">
         <v>6</v>
@@ -3920,13 +3926,13 @@
         <v>24</v>
       </c>
       <c r="B198" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C198" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D198" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E198" t="s">
         <v>6</v>
@@ -3937,10 +3943,10 @@
         <v>24</v>
       </c>
       <c r="B199" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C199" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D199" t="s">
         <v>5</v>
@@ -3954,10 +3960,10 @@
         <v>24</v>
       </c>
       <c r="B200" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C200" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D200" t="s">
         <v>6</v>
@@ -3971,10 +3977,10 @@
         <v>24</v>
       </c>
       <c r="B201" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C201" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D201" t="s">
         <v>5</v>
@@ -3988,13 +3994,13 @@
         <v>25</v>
       </c>
       <c r="B202" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C202" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D202" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E202" t="s">
         <v>6</v>
@@ -4005,16 +4011,16 @@
         <v>25</v>
       </c>
       <c r="B203" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C203" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D203" t="s">
         <v>6</v>
       </c>
       <c r="E203" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -4022,16 +4028,16 @@
         <v>25</v>
       </c>
       <c r="B204" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C204" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D204" t="s">
         <v>5</v>
       </c>
       <c r="E204" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -4039,13 +4045,13 @@
         <v>25</v>
       </c>
       <c r="B205" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C205" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D205" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E205" t="s">
         <v>7</v>
@@ -4056,16 +4062,16 @@
         <v>25</v>
       </c>
       <c r="B206" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C206" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D206" t="s">
         <v>5</v>
       </c>
       <c r="E206" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -4073,10 +4079,10 @@
         <v>25</v>
       </c>
       <c r="B207" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C207" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D207" t="s">
         <v>5</v>
@@ -4090,16 +4096,16 @@
         <v>25</v>
       </c>
       <c r="B208" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C208" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D208" t="s">
         <v>5</v>
       </c>
       <c r="E208" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -4107,10 +4113,10 @@
         <v>25</v>
       </c>
       <c r="B209" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C209" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D209" t="s">
         <v>5</v>
@@ -4124,10 +4130,10 @@
         <v>25</v>
       </c>
       <c r="B210" t="s">
+        <v>47</v>
+      </c>
+      <c r="C210" t="s">
         <v>45</v>
-      </c>
-      <c r="C210" t="s">
-        <v>43</v>
       </c>
       <c r="D210" t="s">
         <v>6</v>
@@ -4141,13 +4147,13 @@
         <v>25</v>
       </c>
       <c r="B211" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C211" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D211" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E211" t="s">
         <v>7</v>
@@ -4158,16 +4164,16 @@
         <v>26</v>
       </c>
       <c r="B212" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C212" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D212" t="s">
         <v>5</v>
       </c>
       <c r="E212" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4175,10 +4181,10 @@
         <v>26</v>
       </c>
       <c r="B213" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C213" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D213" t="s">
         <v>6</v>
@@ -4192,10 +4198,10 @@
         <v>26</v>
       </c>
       <c r="B214" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C214" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D214" t="s">
         <v>5</v>
@@ -4209,13 +4215,13 @@
         <v>26</v>
       </c>
       <c r="B215" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C215" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D215" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E215" t="s">
         <v>6</v>
@@ -4226,10 +4232,10 @@
         <v>26</v>
       </c>
       <c r="B216" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C216" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D216" t="s">
         <v>6</v>
@@ -4243,13 +4249,13 @@
         <v>26</v>
       </c>
       <c r="B217" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C217" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D217" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E217" t="s">
         <v>5</v>
@@ -4260,16 +4266,16 @@
         <v>26</v>
       </c>
       <c r="B218" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C218" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D218" t="s">
         <v>5</v>
       </c>
       <c r="E218" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4277,16 +4283,16 @@
         <v>26</v>
       </c>
       <c r="B219" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C219" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D219" t="s">
         <v>7</v>
       </c>
       <c r="E219" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4294,16 +4300,16 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
+        <v>52</v>
+      </c>
+      <c r="C220" t="s">
         <v>50</v>
       </c>
-      <c r="C220" t="s">
-        <v>48</v>
-      </c>
       <c r="D220" t="s">
         <v>5</v>
       </c>
       <c r="E220" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4311,16 +4317,16 @@
         <v>26</v>
       </c>
       <c r="B221" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C221" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D221" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E221" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4328,13 +4334,13 @@
         <v>27</v>
       </c>
       <c r="B222" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C222" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D222" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E222" t="s">
         <v>6</v>
@@ -4345,10 +4351,10 @@
         <v>27</v>
       </c>
       <c r="B223" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C223" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D223" t="s">
         <v>5</v>
@@ -4362,13 +4368,13 @@
         <v>27</v>
       </c>
       <c r="B224" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C224" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D224" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E224" t="s">
         <v>5</v>
@@ -4379,10 +4385,10 @@
         <v>27</v>
       </c>
       <c r="B225" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C225" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D225" t="s">
         <v>7</v>
@@ -4396,10 +4402,10 @@
         <v>27</v>
       </c>
       <c r="B226" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C226" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D226" t="s">
         <v>5</v>
@@ -4413,10 +4419,10 @@
         <v>27</v>
       </c>
       <c r="B227" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C227" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D227" t="s">
         <v>5</v>
@@ -4430,13 +4436,13 @@
         <v>27</v>
       </c>
       <c r="B228" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C228" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D228" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E228" t="s">
         <v>6</v>
@@ -4447,13 +4453,13 @@
         <v>27</v>
       </c>
       <c r="B229" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C229" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D229" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E229" t="s">
         <v>6</v>
@@ -4464,16 +4470,16 @@
         <v>27</v>
       </c>
       <c r="B230" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C230" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D230" t="s">
         <v>5</v>
       </c>
       <c r="E230" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -4481,10 +4487,10 @@
         <v>27</v>
       </c>
       <c r="B231" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C231" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D231" t="s">
         <v>6</v>
@@ -4498,13 +4504,13 @@
         <v>28</v>
       </c>
       <c r="B232" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C232" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D232" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E232" t="s">
         <v>6</v>
@@ -4515,13 +4521,13 @@
         <v>28</v>
       </c>
       <c r="B233" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C233" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D233" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E233" t="s">
         <v>5</v>
@@ -4532,16 +4538,16 @@
         <v>28</v>
       </c>
       <c r="B234" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C234" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D234" t="s">
         <v>5</v>
       </c>
       <c r="E234" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -4549,16 +4555,16 @@
         <v>28</v>
       </c>
       <c r="B235" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C235" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D235" t="s">
         <v>7</v>
       </c>
       <c r="E235" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -4566,10 +4572,10 @@
         <v>28</v>
       </c>
       <c r="B236" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C236" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D236" t="s">
         <v>6</v>
@@ -4583,16 +4589,16 @@
         <v>28</v>
       </c>
       <c r="B237" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C237" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D237" t="s">
         <v>6</v>
       </c>
       <c r="E237" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -4600,13 +4606,13 @@
         <v>28</v>
       </c>
       <c r="B238" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C238" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D238" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E238" t="s">
         <v>7</v>
@@ -4617,16 +4623,16 @@
         <v>28</v>
       </c>
       <c r="B239" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C239" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D239" t="s">
         <v>5</v>
       </c>
       <c r="E239" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -4634,10 +4640,10 @@
         <v>28</v>
       </c>
       <c r="B240" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C240" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D240" t="s">
         <v>6</v>
@@ -4651,10 +4657,10 @@
         <v>28</v>
       </c>
       <c r="B241" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C241" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D241" t="s">
         <v>8</v>
@@ -4668,13 +4674,13 @@
         <v>29</v>
       </c>
       <c r="B242" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C242" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D242" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E242" t="s">
         <v>5</v>
@@ -4685,10 +4691,10 @@
         <v>29</v>
       </c>
       <c r="B243" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C243" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D243" t="s">
         <v>6</v>
@@ -4702,16 +4708,16 @@
         <v>29</v>
       </c>
       <c r="B244" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C244" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D244" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E244" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -4719,10 +4725,10 @@
         <v>29</v>
       </c>
       <c r="B245" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C245" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D245" t="s">
         <v>6</v>
@@ -4736,16 +4742,16 @@
         <v>29</v>
       </c>
       <c r="B246" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C246" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D246" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E246" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -4753,16 +4759,16 @@
         <v>29</v>
       </c>
       <c r="B247" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C247" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D247" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E247" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -4770,16 +4776,16 @@
         <v>29</v>
       </c>
       <c r="B248" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C248" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D248" t="s">
         <v>6</v>
       </c>
       <c r="E248" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -4787,16 +4793,16 @@
         <v>29</v>
       </c>
       <c r="B249" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C249" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D249" t="s">
         <v>5</v>
       </c>
       <c r="E249" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -4804,10 +4810,10 @@
         <v>29</v>
       </c>
       <c r="B250" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C250" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D250" t="s">
         <v>7</v>
@@ -4821,16 +4827,16 @@
         <v>29</v>
       </c>
       <c r="B251" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C251" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D251" t="s">
         <v>5</v>
       </c>
       <c r="E251" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -4838,10 +4844,10 @@
         <v>30</v>
       </c>
       <c r="B252" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C252" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D252" t="s">
         <v>6</v>
@@ -4855,13 +4861,13 @@
         <v>30</v>
       </c>
       <c r="B253" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C253" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D253" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E253" t="s">
         <v>5</v>
@@ -4872,16 +4878,16 @@
         <v>30</v>
       </c>
       <c r="B254" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C254" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D254" t="s">
         <v>6</v>
       </c>
       <c r="E254" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -4889,16 +4895,16 @@
         <v>30</v>
       </c>
       <c r="B255" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C255" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D255" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E255" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -4906,13 +4912,13 @@
         <v>30</v>
       </c>
       <c r="B256" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C256" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D256" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E256" t="s">
         <v>6</v>
@@ -4923,13 +4929,13 @@
         <v>30</v>
       </c>
       <c r="B257" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C257" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D257" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E257" t="s">
         <v>6</v>
@@ -4940,10 +4946,10 @@
         <v>30</v>
       </c>
       <c r="B258" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C258" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D258" t="s">
         <v>5</v>
@@ -4957,10 +4963,10 @@
         <v>30</v>
       </c>
       <c r="B259" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C259" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D259" t="s">
         <v>7</v>
@@ -4974,10 +4980,10 @@
         <v>30</v>
       </c>
       <c r="B260" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C260" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D260" t="s">
         <v>8</v>
@@ -4991,10 +4997,10 @@
         <v>30</v>
       </c>
       <c r="B261" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C261" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D261" t="s">
         <v>5</v>
@@ -5008,16 +5014,16 @@
         <v>31</v>
       </c>
       <c r="B262" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C262" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D262" t="s">
         <v>5</v>
       </c>
       <c r="E262" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -5025,10 +5031,10 @@
         <v>31</v>
       </c>
       <c r="B263" t="s">
+        <v>60</v>
+      </c>
+      <c r="C263" t="s">
         <v>58</v>
-      </c>
-      <c r="C263" t="s">
-        <v>56</v>
       </c>
       <c r="D263" t="s">
         <v>6</v>
@@ -5042,10 +5048,10 @@
         <v>31</v>
       </c>
       <c r="B264" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C264" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D264" t="s">
         <v>5</v>
@@ -5059,10 +5065,10 @@
         <v>31</v>
       </c>
       <c r="B265" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C265" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D265" t="s">
         <v>6</v>
@@ -5076,10 +5082,10 @@
         <v>31</v>
       </c>
       <c r="B266" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C266" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D266" t="s">
         <v>7</v>
@@ -5093,10 +5099,10 @@
         <v>31</v>
       </c>
       <c r="B267" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C267" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D267" t="s">
         <v>7</v>
@@ -5110,16 +5116,16 @@
         <v>31</v>
       </c>
       <c r="B268" t="s">
+        <v>48</v>
+      </c>
+      <c r="C268" t="s">
         <v>46</v>
       </c>
-      <c r="C268" t="s">
-        <v>44</v>
-      </c>
       <c r="D268" t="s">
         <v>5</v>
       </c>
       <c r="E268" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -5127,13 +5133,13 @@
         <v>31</v>
       </c>
       <c r="B269" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C269" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D269" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E269" t="s">
         <v>8</v>
@@ -5144,16 +5150,16 @@
         <v>31</v>
       </c>
       <c r="B270" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C270" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D270" t="s">
         <v>5</v>
       </c>
       <c r="E270" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -5161,13 +5167,13 @@
         <v>31</v>
       </c>
       <c r="B271" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C271" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D271" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E271" t="s">
         <v>5</v>
@@ -5178,10 +5184,10 @@
         <v>32</v>
       </c>
       <c r="B272" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C272" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D272" t="s">
         <v>5</v>
@@ -5195,13 +5201,13 @@
         <v>32</v>
       </c>
       <c r="B273" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C273" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D273" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E273" t="s">
         <v>5</v>
@@ -5212,16 +5218,16 @@
         <v>32</v>
       </c>
       <c r="B274" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C274" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D274" t="s">
         <v>5</v>
       </c>
       <c r="E274" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -5229,16 +5235,16 @@
         <v>32</v>
       </c>
       <c r="B275" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C275" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D275" t="s">
         <v>7</v>
       </c>
       <c r="E275" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -5246,13 +5252,13 @@
         <v>32</v>
       </c>
       <c r="B276" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C276" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D276" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E276" t="s">
         <v>6</v>
@@ -5263,10 +5269,10 @@
         <v>32</v>
       </c>
       <c r="B277" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C277" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D277" t="s">
         <v>5</v>
@@ -5280,16 +5286,16 @@
         <v>32</v>
       </c>
       <c r="B278" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C278" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D278" t="s">
         <v>7</v>
       </c>
       <c r="E278" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -5297,13 +5303,13 @@
         <v>32</v>
       </c>
       <c r="B279" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C279" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D279" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E279" t="s">
         <v>8</v>
@@ -5314,16 +5320,16 @@
         <v>32</v>
       </c>
       <c r="B280" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C280" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D280" t="s">
         <v>5</v>
       </c>
       <c r="E280" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -5331,10 +5337,10 @@
         <v>32</v>
       </c>
       <c r="B281" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C281" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D281" t="s">
         <v>5</v>
@@ -5348,10 +5354,10 @@
         <v>33</v>
       </c>
       <c r="B282" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C282" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D282" t="s">
         <v>5</v>
@@ -5365,10 +5371,10 @@
         <v>33</v>
       </c>
       <c r="B283" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C283" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D283" t="s">
         <v>5</v>
@@ -5382,16 +5388,16 @@
         <v>33</v>
       </c>
       <c r="B284" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C284" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D284" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E284" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -5399,10 +5405,10 @@
         <v>33</v>
       </c>
       <c r="B285" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C285" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D285" t="s">
         <v>6</v>
@@ -5416,10 +5422,10 @@
         <v>33</v>
       </c>
       <c r="B286" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C286" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D286" t="s">
         <v>5</v>
@@ -5433,13 +5439,13 @@
         <v>33</v>
       </c>
       <c r="B287" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C287" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D287" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E287" t="s">
         <v>6</v>
@@ -5450,10 +5456,10 @@
         <v>33</v>
       </c>
       <c r="B288" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C288" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D288" t="s">
         <v>6</v>
@@ -5467,10 +5473,10 @@
         <v>33</v>
       </c>
       <c r="B289" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C289" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D289" t="s">
         <v>6</v>
@@ -5484,13 +5490,13 @@
         <v>33</v>
       </c>
       <c r="B290" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C290" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D290" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E290" t="s">
         <v>5</v>
@@ -5501,10 +5507,10 @@
         <v>33</v>
       </c>
       <c r="B291" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C291" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D291" t="s">
         <v>6</v>
@@ -5518,16 +5524,16 @@
         <v>34</v>
       </c>
       <c r="B292" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C292" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D292" t="s">
         <v>5</v>
       </c>
       <c r="E292" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -5535,13 +5541,13 @@
         <v>34</v>
       </c>
       <c r="B293" t="s">
+        <v>51</v>
+      </c>
+      <c r="C293" t="s">
         <v>49</v>
       </c>
-      <c r="C293" t="s">
-        <v>47</v>
-      </c>
       <c r="D293" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E293" t="s">
         <v>7</v>
@@ -5552,10 +5558,10 @@
         <v>34</v>
       </c>
       <c r="B294" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C294" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D294" t="s">
         <v>5</v>
@@ -5569,16 +5575,16 @@
         <v>34</v>
       </c>
       <c r="B295" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C295" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D295" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E295" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -5586,13 +5592,13 @@
         <v>34</v>
       </c>
       <c r="B296" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C296" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D296" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E296" t="s">
         <v>5</v>
@@ -5603,10 +5609,10 @@
         <v>34</v>
       </c>
       <c r="B297" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C297" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D297" t="s">
         <v>5</v>
@@ -5620,10 +5626,10 @@
         <v>34</v>
       </c>
       <c r="B298" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C298" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D298" t="s">
         <v>5</v>
@@ -5637,16 +5643,16 @@
         <v>34</v>
       </c>
       <c r="B299" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C299" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D299" t="s">
         <v>5</v>
       </c>
       <c r="E299" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -5654,16 +5660,16 @@
         <v>34</v>
       </c>
       <c r="B300" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C300" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D300" t="s">
         <v>7</v>
       </c>
       <c r="E300" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -5671,10 +5677,10 @@
         <v>34</v>
       </c>
       <c r="B301" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C301" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D301" t="s">
         <v>5</v>
@@ -5688,10 +5694,10 @@
         <v>35</v>
       </c>
       <c r="B302" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C302" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D302" t="s">
         <v>6</v>
@@ -5705,16 +5711,16 @@
         <v>35</v>
       </c>
       <c r="B303" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C303" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D303" t="s">
         <v>7</v>
       </c>
       <c r="E303" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -5722,13 +5728,13 @@
         <v>35</v>
       </c>
       <c r="B304" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C304" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D304" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E304" t="s">
         <v>5</v>
@@ -5739,10 +5745,10 @@
         <v>35</v>
       </c>
       <c r="B305" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C305" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D305" t="s">
         <v>5</v>
@@ -5756,13 +5762,13 @@
         <v>35</v>
       </c>
       <c r="B306" t="s">
+        <v>58</v>
+      </c>
+      <c r="C306" t="s">
         <v>56</v>
       </c>
-      <c r="C306" t="s">
-        <v>54</v>
-      </c>
       <c r="D306" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E306" t="s">
         <v>7</v>
@@ -5773,16 +5779,16 @@
         <v>35</v>
       </c>
       <c r="B307" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C307" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D307" t="s">
         <v>7</v>
       </c>
       <c r="E307" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -5790,10 +5796,10 @@
         <v>35</v>
       </c>
       <c r="B308" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C308" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D308" t="s">
         <v>7</v>
@@ -5807,16 +5813,16 @@
         <v>35</v>
       </c>
       <c r="B309" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C309" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D309" t="s">
         <v>6</v>
       </c>
       <c r="E309" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -5824,13 +5830,13 @@
         <v>35</v>
       </c>
       <c r="B310" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C310" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D310" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E310" t="s">
         <v>5</v>
@@ -5841,10 +5847,10 @@
         <v>35</v>
       </c>
       <c r="B311" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C311" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D311" t="s">
         <v>7</v>
@@ -5858,16 +5864,16 @@
         <v>36</v>
       </c>
       <c r="B312" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C312" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D312" t="s">
         <v>5</v>
       </c>
       <c r="E312" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -5875,13 +5881,13 @@
         <v>36</v>
       </c>
       <c r="B313" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C313" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D313" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E313" t="s">
         <v>6</v>
@@ -5892,10 +5898,10 @@
         <v>36</v>
       </c>
       <c r="B314" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C314" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D314" t="s">
         <v>5</v>
@@ -5909,10 +5915,10 @@
         <v>36</v>
       </c>
       <c r="B315" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C315" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D315" t="s">
         <v>5</v>
@@ -5926,10 +5932,10 @@
         <v>36</v>
       </c>
       <c r="B316" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C316" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D316" t="s">
         <v>7</v>
@@ -5943,10 +5949,10 @@
         <v>36</v>
       </c>
       <c r="B317" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C317" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D317" t="s">
         <v>5</v>
@@ -5960,10 +5966,10 @@
         <v>36</v>
       </c>
       <c r="B318" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C318" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D318" t="s">
         <v>5</v>
@@ -5977,10 +5983,10 @@
         <v>36</v>
       </c>
       <c r="B319" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C319" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D319" t="s">
         <v>6</v>
@@ -5994,16 +6000,16 @@
         <v>36</v>
       </c>
       <c r="B320" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C320" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D320" t="s">
         <v>9</v>
       </c>
       <c r="E320" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -6011,10 +6017,10 @@
         <v>36</v>
       </c>
       <c r="B321" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C321" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D321" t="s">
         <v>5</v>
@@ -6028,10 +6034,10 @@
         <v>37</v>
       </c>
       <c r="B322" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C322" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D322" t="s">
         <v>7</v>
@@ -6045,10 +6051,10 @@
         <v>37</v>
       </c>
       <c r="B323" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C323" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D323" t="s">
         <v>6</v>
@@ -6062,13 +6068,13 @@
         <v>37</v>
       </c>
       <c r="B324" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C324" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D324" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E324" t="s">
         <v>6</v>
@@ -6079,10 +6085,10 @@
         <v>37</v>
       </c>
       <c r="B325" t="s">
+        <v>50</v>
+      </c>
+      <c r="C325" t="s">
         <v>48</v>
-      </c>
-      <c r="C325" t="s">
-        <v>46</v>
       </c>
       <c r="D325" t="s">
         <v>7</v>
@@ -6096,13 +6102,13 @@
         <v>37</v>
       </c>
       <c r="B326" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C326" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D326" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E326" t="s">
         <v>10</v>
@@ -6113,16 +6119,16 @@
         <v>37</v>
       </c>
       <c r="B327" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C327" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D327" t="s">
         <v>6</v>
       </c>
       <c r="E327" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -6130,10 +6136,10 @@
         <v>37</v>
       </c>
       <c r="B328" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C328" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D328" t="s">
         <v>5</v>
@@ -6147,10 +6153,10 @@
         <v>37</v>
       </c>
       <c r="B329" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C329" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D329" t="s">
         <v>5</v>
@@ -6164,10 +6170,10 @@
         <v>37</v>
       </c>
       <c r="B330" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C330" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D330" t="s">
         <v>7</v>
@@ -6181,10 +6187,10 @@
         <v>37</v>
       </c>
       <c r="B331" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C331" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D331" t="s">
         <v>5</v>
@@ -6198,16 +6204,16 @@
         <v>38</v>
       </c>
       <c r="B332" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C332" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D332" t="s">
         <v>6</v>
       </c>
       <c r="E332" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -6215,13 +6221,13 @@
         <v>38</v>
       </c>
       <c r="B333" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C333" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D333" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E333" t="s">
         <v>6</v>
@@ -6232,16 +6238,16 @@
         <v>38</v>
       </c>
       <c r="B334" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C334" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D334" t="s">
         <v>6</v>
       </c>
       <c r="E334" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -6249,13 +6255,13 @@
         <v>38</v>
       </c>
       <c r="B335" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C335" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D335" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E335" t="s">
         <v>6</v>
@@ -6266,10 +6272,10 @@
         <v>38</v>
       </c>
       <c r="B336" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C336" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D336" t="s">
         <v>5</v>
@@ -6283,16 +6289,16 @@
         <v>38</v>
       </c>
       <c r="B337" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C337" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D337" t="s">
         <v>5</v>
       </c>
       <c r="E337" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -6300,13 +6306,13 @@
         <v>38</v>
       </c>
       <c r="B338" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C338" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D338" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E338" t="s">
         <v>5</v>
@@ -6317,10 +6323,10 @@
         <v>38</v>
       </c>
       <c r="B339" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C339" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D339" t="s">
         <v>6</v>
@@ -6334,16 +6340,16 @@
         <v>38</v>
       </c>
       <c r="B340" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C340" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D340" t="s">
         <v>6</v>
       </c>
       <c r="E340" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -6351,10 +6357,10 @@
         <v>38</v>
       </c>
       <c r="B341" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C341" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D341" t="s">
         <v>5</v>
@@ -6368,10 +6374,10 @@
         <v>39</v>
       </c>
       <c r="B342" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C342" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D342" t="s">
         <v>6</v>
@@ -6385,16 +6391,16 @@
         <v>39</v>
       </c>
       <c r="B343" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C343" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D343" t="s">
         <v>5</v>
       </c>
       <c r="E343" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -6402,16 +6408,16 @@
         <v>39</v>
       </c>
       <c r="B344" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C344" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D344" t="s">
         <v>6</v>
       </c>
       <c r="E344" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -6419,10 +6425,10 @@
         <v>39</v>
       </c>
       <c r="B345" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C345" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D345" t="s">
         <v>8</v>
@@ -6436,13 +6442,13 @@
         <v>39</v>
       </c>
       <c r="B346" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C346" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D346" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E346" t="s">
         <v>5</v>
@@ -6453,16 +6459,16 @@
         <v>39</v>
       </c>
       <c r="B347" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C347" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D347" t="s">
         <v>6</v>
       </c>
       <c r="E347" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -6470,16 +6476,16 @@
         <v>39</v>
       </c>
       <c r="B348" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C348" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D348" t="s">
         <v>6</v>
       </c>
       <c r="E348" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -6487,16 +6493,16 @@
         <v>39</v>
       </c>
       <c r="B349" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C349" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D349" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E349" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -6504,16 +6510,16 @@
         <v>39</v>
       </c>
       <c r="B350" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C350" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D350" t="s">
         <v>6</v>
       </c>
       <c r="E350" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -6521,10 +6527,10 @@
         <v>39</v>
       </c>
       <c r="B351" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C351" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D351" t="s">
         <v>5</v>
@@ -6538,10 +6544,10 @@
         <v>40</v>
       </c>
       <c r="B352" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C352" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D352" t="s">
         <v>5</v>
@@ -6555,10 +6561,10 @@
         <v>40</v>
       </c>
       <c r="B353" t="s">
+        <v>63</v>
+      </c>
+      <c r="C353" t="s">
         <v>61</v>
-      </c>
-      <c r="C353" t="s">
-        <v>59</v>
       </c>
       <c r="D353" t="s">
         <v>5</v>
@@ -6572,10 +6578,10 @@
         <v>40</v>
       </c>
       <c r="B354" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C354" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D354" t="s">
         <v>7</v>
@@ -6589,10 +6595,10 @@
         <v>40</v>
       </c>
       <c r="B355" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C355" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D355" t="s">
         <v>9</v>
@@ -6606,16 +6612,16 @@
         <v>40</v>
       </c>
       <c r="B356" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C356" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D356" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E356" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -6623,10 +6629,10 @@
         <v>40</v>
       </c>
       <c r="B357" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C357" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D357" t="s">
         <v>5</v>
@@ -6640,10 +6646,10 @@
         <v>40</v>
       </c>
       <c r="B358" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C358" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D358" t="s">
         <v>7</v>
@@ -6657,13 +6663,13 @@
         <v>40</v>
       </c>
       <c r="B359" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C359" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D359" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E359" t="s">
         <v>5</v>
@@ -6674,10 +6680,10 @@
         <v>40</v>
       </c>
       <c r="B360" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C360" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D360" t="s">
         <v>6</v>
@@ -6691,10 +6697,10 @@
         <v>40</v>
       </c>
       <c r="B361" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C361" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D361" t="s">
         <v>8</v>
@@ -6708,10 +6714,10 @@
         <v>41</v>
       </c>
       <c r="B362" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C362" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D362" t="s">
         <v>6</v>
@@ -6725,10 +6731,10 @@
         <v>41</v>
       </c>
       <c r="B363" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C363" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D363" t="s">
         <v>7</v>
@@ -6742,13 +6748,13 @@
         <v>41</v>
       </c>
       <c r="B364" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C364" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D364" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E364" t="s">
         <v>8</v>
@@ -6759,10 +6765,10 @@
         <v>41</v>
       </c>
       <c r="B365" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C365" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D365" t="s">
         <v>6</v>
@@ -6776,10 +6782,10 @@
         <v>41</v>
       </c>
       <c r="B366" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C366" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D366" t="s">
         <v>7</v>
@@ -6793,10 +6799,10 @@
         <v>41</v>
       </c>
       <c r="B367" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C367" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D367" t="s">
         <v>5</v>
@@ -6810,10 +6816,10 @@
         <v>41</v>
       </c>
       <c r="B368" t="s">
+        <v>61</v>
+      </c>
+      <c r="C368" t="s">
         <v>59</v>
-      </c>
-      <c r="C368" t="s">
-        <v>57</v>
       </c>
       <c r="D368" t="s">
         <v>6</v>
@@ -6827,13 +6833,13 @@
         <v>41</v>
       </c>
       <c r="B369" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C369" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D369" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E369" t="s">
         <v>5</v>
@@ -6844,10 +6850,10 @@
         <v>41</v>
       </c>
       <c r="B370" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C370" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D370" t="s">
         <v>7</v>
@@ -6861,16 +6867,203 @@
         <v>41</v>
       </c>
       <c r="B371" t="s">
+        <v>53</v>
+      </c>
+      <c r="C371" t="s">
+        <v>44</v>
+      </c>
+      <c r="D371" t="s">
+        <v>64</v>
+      </c>
+      <c r="E371" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5">
+      <c r="A372" t="s">
+        <v>42</v>
+      </c>
+      <c r="B372" t="s">
+        <v>57</v>
+      </c>
+      <c r="C372" t="s">
+        <v>48</v>
+      </c>
+      <c r="D372" t="s">
+        <v>5</v>
+      </c>
+      <c r="E372" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5">
+      <c r="A373" t="s">
+        <v>42</v>
+      </c>
+      <c r="B373" t="s">
+        <v>54</v>
+      </c>
+      <c r="C373" t="s">
+        <v>56</v>
+      </c>
+      <c r="D373" t="s">
+        <v>64</v>
+      </c>
+      <c r="E373" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5">
+      <c r="A374" t="s">
+        <v>42</v>
+      </c>
+      <c r="B374" t="s">
+        <v>63</v>
+      </c>
+      <c r="C374" t="s">
+        <v>50</v>
+      </c>
+      <c r="D374" t="s">
+        <v>6</v>
+      </c>
+      <c r="E374" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5">
+      <c r="A375" t="s">
+        <v>42</v>
+      </c>
+      <c r="B375" t="s">
+        <v>58</v>
+      </c>
+      <c r="C375" t="s">
+        <v>49</v>
+      </c>
+      <c r="D375" t="s">
+        <v>64</v>
+      </c>
+      <c r="E375" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5">
+      <c r="A376" t="s">
+        <v>42</v>
+      </c>
+      <c r="B376" t="s">
+        <v>59</v>
+      </c>
+      <c r="C376" t="s">
+        <v>45</v>
+      </c>
+      <c r="D376" t="s">
+        <v>6</v>
+      </c>
+      <c r="E376" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5">
+      <c r="A377" t="s">
+        <v>42</v>
+      </c>
+      <c r="B377" t="s">
+        <v>60</v>
+      </c>
+      <c r="C377" t="s">
+        <v>47</v>
+      </c>
+      <c r="D377" t="s">
+        <v>9</v>
+      </c>
+      <c r="E377" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5">
+      <c r="A378" t="s">
+        <v>42</v>
+      </c>
+      <c r="B378" t="s">
+        <v>62</v>
+      </c>
+      <c r="C378" t="s">
         <v>51</v>
       </c>
-      <c r="C371" t="s">
+      <c r="D378" t="s">
+        <v>6</v>
+      </c>
+      <c r="E378" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5">
+      <c r="A379" t="s">
         <v>42</v>
       </c>
-      <c r="D371" t="s">
-        <v>62</v>
-      </c>
-      <c r="E371" t="s">
-        <v>5</v>
+      <c r="B379" t="s">
+        <v>46</v>
+      </c>
+      <c r="C379" t="s">
+        <v>61</v>
+      </c>
+      <c r="D379" t="s">
+        <v>6</v>
+      </c>
+      <c r="E379" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5">
+      <c r="A380" t="s">
+        <v>42</v>
+      </c>
+      <c r="B380" t="s">
+        <v>44</v>
+      </c>
+      <c r="C380" t="s">
+        <v>52</v>
+      </c>
+      <c r="D380" t="s">
+        <v>7</v>
+      </c>
+      <c r="E380" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5">
+      <c r="A381" t="s">
+        <v>42</v>
+      </c>
+      <c r="B381" t="s">
+        <v>55</v>
+      </c>
+      <c r="C381" t="s">
+        <v>53</v>
+      </c>
+      <c r="D381" t="s">
+        <v>64</v>
+      </c>
+      <c r="E381" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5">
+      <c r="A382" t="s">
+        <v>43</v>
+      </c>
+      <c r="B382" t="s">
+        <v>51</v>
+      </c>
+      <c r="C382" t="s">
+        <v>52</v>
+      </c>
+      <c r="D382" t="s">
+        <v>5</v>
+      </c>
+      <c r="E382" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
